--- a/industry/inputs/fuel_ghg_emission_factors.xlsx
+++ b/industry/inputs/fuel_ghg_emission_factors.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholaskong/Desktop/REAM_lab/h2_demand_model/industry/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F8A616-2A19-7B45-8136-ED24F1D9B2E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098AE3BC-87AE-3048-B8B8-1C51CDAF8C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="22920" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="740" windowWidth="22920" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="468">
   <si>
     <r>
       <rPr>
@@ -6482,6 +6482,9 @@
   </si>
   <si>
     <t>Industrial: Residual Fuel Oil quads</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -7047,345 +7050,345 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="46" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="46" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="46" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="46" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="46"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="46"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="46" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="46" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="46"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="46"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="46" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" indent="46" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8271,8 +8274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="236" zoomScaleNormal="272" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="281" zoomScaleNormal="272" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -8280,19 +8283,19 @@
     <col min="1" max="1" width="7.59765625" customWidth="1"/>
     <col min="2" max="2" width="8.59765625" customWidth="1"/>
     <col min="3" max="3" width="8.796875" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" style="168"/>
+    <col min="4" max="4" width="10.59765625" style="56"/>
     <col min="5" max="5" width="24.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="10.25" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="61"/>
       <c r="C1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="169" t="s">
+      <c r="D1" s="57" t="s">
         <v>456</v>
       </c>
     </row>
@@ -8304,7 +8307,7 @@
       <c r="C2" s="8">
         <v>103.69</v>
       </c>
-      <c r="D2" s="168" t="s">
+      <c r="D2" s="56" t="s">
         <v>457</v>
       </c>
     </row>
@@ -8316,7 +8319,7 @@
       <c r="C3" s="8">
         <v>93.28</v>
       </c>
-      <c r="D3" s="168" t="s">
+      <c r="D3" s="56" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8328,7 +8331,7 @@
       <c r="C4" s="8">
         <v>97.17</v>
       </c>
-      <c r="D4" s="168" t="s">
+      <c r="D4" s="56" t="s">
         <v>457</v>
       </c>
     </row>
@@ -8340,7 +8343,7 @@
       <c r="C5" s="8">
         <v>97.72</v>
       </c>
-      <c r="D5" s="168" t="s">
+      <c r="D5" s="56" t="s">
         <v>457</v>
       </c>
     </row>
@@ -8352,7 +8355,7 @@
       <c r="C6" s="8">
         <v>93.9</v>
       </c>
-      <c r="D6" s="168" t="s">
+      <c r="D6" s="56" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8364,7 +8367,7 @@
       <c r="C7" s="8">
         <v>94.67</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="56" t="s">
         <v>457</v>
       </c>
     </row>
@@ -8376,7 +8379,7 @@
       <c r="C8" s="8">
         <v>113.67</v>
       </c>
-      <c r="D8" s="168" t="s">
+      <c r="D8" s="56" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8388,8 +8391,8 @@
       <c r="C9" s="8">
         <v>90.7</v>
       </c>
-      <c r="D9" s="168" t="s">
-        <v>459</v>
+      <c r="D9" s="56" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="6.75" customHeight="1">
@@ -8400,7 +8403,7 @@
       <c r="C10" s="8">
         <v>102.41</v>
       </c>
-      <c r="D10" s="168" t="s">
+      <c r="D10" s="56" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8412,7 +8415,7 @@
       <c r="C11" s="8">
         <v>75</v>
       </c>
-      <c r="D11" s="168" t="s">
+      <c r="D11" s="56" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8424,7 +8427,7 @@
       <c r="C12" s="8">
         <v>85.97</v>
       </c>
-      <c r="D12" s="168" t="s">
+      <c r="D12" s="56" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8436,7 +8439,7 @@
       <c r="C13" s="8">
         <v>118.17</v>
       </c>
-      <c r="D13" s="168" t="s">
+      <c r="D13" s="56" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8448,8 +8451,8 @@
       <c r="C14" s="8">
         <v>111.84</v>
       </c>
-      <c r="D14" s="168" t="s">
-        <v>457</v>
+      <c r="D14" s="56" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="6.75" customHeight="1">
@@ -8460,8 +8463,8 @@
       <c r="C15" s="8">
         <v>105.51</v>
       </c>
-      <c r="D15" s="168" t="s">
-        <v>459</v>
+      <c r="D15" s="56" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="6.75" customHeight="1">
@@ -8472,7 +8475,7 @@
       <c r="C16" s="8">
         <v>93.8</v>
       </c>
-      <c r="D16" s="168" t="s">
+      <c r="D16" s="56" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8484,7 +8487,7 @@
       <c r="C17" s="8">
         <v>53.06</v>
       </c>
-      <c r="D17" s="168" t="s">
+      <c r="D17" s="56" t="s">
         <v>461</v>
       </c>
     </row>
@@ -8496,7 +8499,7 @@
       <c r="C18" s="8">
         <v>274.32</v>
       </c>
-      <c r="D18" s="168" t="s">
+      <c r="D18" s="56" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8508,7 +8511,7 @@
       <c r="C19" s="8">
         <v>46.85</v>
       </c>
-      <c r="D19" s="168" t="s">
+      <c r="D19" s="56" t="s">
         <v>458</v>
       </c>
     </row>
@@ -8520,8 +8523,8 @@
       <c r="C20" s="8">
         <v>59</v>
       </c>
-      <c r="D20" s="168" t="s">
-        <v>459</v>
+      <c r="D20" s="56" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="6.75" customHeight="1">
@@ -8532,7 +8535,7 @@
       <c r="C21" s="8">
         <v>61.46</v>
       </c>
-      <c r="D21" s="168" t="s">
+      <c r="D21" s="56" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8544,7 +8547,7 @@
       <c r="C22" s="8">
         <v>52.07</v>
       </c>
-      <c r="D22" s="168" t="s">
+      <c r="D22" s="56" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8556,7 +8559,7 @@
       <c r="C23" s="8">
         <v>52.07</v>
       </c>
-      <c r="D23" s="168" t="s">
+      <c r="D23" s="56" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8568,7 +8571,7 @@
       <c r="C24" s="8">
         <v>75.36</v>
       </c>
-      <c r="D24" s="168" t="s">
+      <c r="D24" s="56" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8580,8 +8583,8 @@
       <c r="C25" s="8">
         <v>69.25</v>
       </c>
-      <c r="D25" s="168" t="s">
-        <v>462</v>
+      <c r="D25" s="56" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="6.75" customHeight="1">
@@ -8592,7 +8595,7 @@
       <c r="C26" s="8">
         <v>64.77</v>
       </c>
-      <c r="D26" s="168" t="s">
+      <c r="D26" s="56" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8604,7 +8607,7 @@
       <c r="C27" s="8">
         <v>68.72</v>
       </c>
-      <c r="D27" s="168" t="s">
+      <c r="D27" s="56" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8616,7 +8619,7 @@
       <c r="C28" s="8">
         <v>74.540000000000006</v>
       </c>
-      <c r="D28" s="168" t="s">
+      <c r="D28" s="56" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8628,7 +8631,7 @@
       <c r="C29" s="8">
         <v>73.25</v>
       </c>
-      <c r="D29" s="168" t="s">
+      <c r="D29" s="56" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8640,7 +8643,7 @@
       <c r="C30" s="8">
         <v>73.959999999999994</v>
       </c>
-      <c r="D30" s="168" t="s">
+      <c r="D30" s="56" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8652,7 +8655,7 @@
       <c r="C31" s="8">
         <v>75.040000000000006</v>
       </c>
-      <c r="D31" s="168" t="s">
+      <c r="D31" s="56" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8664,7 +8667,7 @@
       <c r="C32" s="8">
         <v>59.6</v>
       </c>
-      <c r="D32" s="168" t="s">
+      <c r="D32" s="56" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8676,7 +8679,7 @@
       <c r="C33" s="8">
         <v>65.959999999999994</v>
       </c>
-      <c r="D33" s="168" t="s">
+      <c r="D33" s="56" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8688,7 +8691,7 @@
       <c r="C34" s="8">
         <v>74.92</v>
       </c>
-      <c r="D34" s="168" t="s">
+      <c r="D34" s="56" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8700,7 +8703,7 @@
       <c r="C35" s="8">
         <v>64.94</v>
       </c>
-      <c r="D35" s="168" t="s">
+      <c r="D35" s="56" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8712,7 +8715,7 @@
       <c r="C36" s="8">
         <v>68.86</v>
       </c>
-      <c r="D36" s="168" t="s">
+      <c r="D36" s="56" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8724,7 +8727,7 @@
       <c r="C37" s="8">
         <v>75.2</v>
       </c>
-      <c r="D37" s="168" t="s">
+      <c r="D37" s="56" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8736,7 +8739,7 @@
       <c r="C38" s="8">
         <v>72.22</v>
       </c>
-      <c r="D38" s="168" t="s">
+      <c r="D38" s="56" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8748,8 +8751,8 @@
       <c r="C39" s="8">
         <v>61.71</v>
       </c>
-      <c r="D39" s="168" t="s">
-        <v>463</v>
+      <c r="D39" s="56" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="6.75" customHeight="1">
@@ -8760,8 +8763,8 @@
       <c r="C40" s="8">
         <v>74.27</v>
       </c>
-      <c r="D40" s="168" t="s">
-        <v>459</v>
+      <c r="D40" s="56" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="6.75" customHeight="1">
@@ -8772,7 +8775,7 @@
       <c r="C41" s="8">
         <v>70.22</v>
       </c>
-      <c r="D41" s="168" t="s">
+      <c r="D41" s="56" t="s">
         <v>462</v>
       </c>
     </row>
@@ -8784,7 +8787,7 @@
       <c r="C42" s="8">
         <v>68.02</v>
       </c>
-      <c r="D42" s="168" t="s">
+      <c r="D42" s="56" t="s">
         <v>465</v>
       </c>
     </row>
@@ -8796,7 +8799,7 @@
       <c r="C43" s="8">
         <v>66.88</v>
       </c>
-      <c r="D43" s="168" t="s">
+      <c r="D43" s="56" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8808,7 +8811,7 @@
       <c r="C44" s="8">
         <v>76.22</v>
       </c>
-      <c r="D44" s="168" t="s">
+      <c r="D44" s="56" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8820,7 +8823,7 @@
       <c r="C45" s="8">
         <v>70.02</v>
       </c>
-      <c r="D45" s="168" t="s">
+      <c r="D45" s="56" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8832,7 +8835,7 @@
       <c r="C46" s="8">
         <v>71.02</v>
       </c>
-      <c r="D46" s="168" t="s">
+      <c r="D46" s="56" t="s">
         <v>465</v>
       </c>
     </row>
@@ -8844,7 +8847,7 @@
       <c r="C47" s="8">
         <v>62.87</v>
       </c>
-      <c r="D47" s="168" t="s">
+      <c r="D47" s="56" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8856,7 +8859,7 @@
       <c r="C48" s="8">
         <v>67.77</v>
       </c>
-      <c r="D48" s="168" t="s">
+      <c r="D48" s="56" t="s">
         <v>463</v>
       </c>
     </row>
@@ -8868,7 +8871,7 @@
       <c r="C49" s="8">
         <v>72.930000000000007</v>
       </c>
-      <c r="D49" s="168" t="s">
+      <c r="D49" s="56" t="s">
         <v>466</v>
       </c>
     </row>
@@ -8880,7 +8883,7 @@
       <c r="C50" s="8">
         <v>75.099999999999994</v>
       </c>
-      <c r="D50" s="168" t="s">
+      <c r="D50" s="56" t="s">
         <v>466</v>
       </c>
     </row>
@@ -8892,7 +8895,7 @@
       <c r="C51" s="8">
         <v>72.34</v>
       </c>
-      <c r="D51" s="168" t="s">
+      <c r="D51" s="56" t="s">
         <v>465</v>
       </c>
     </row>
@@ -8904,7 +8907,7 @@
       <c r="C52" s="8">
         <v>74.540000000000006</v>
       </c>
-      <c r="D52" s="168" t="s">
+      <c r="D52" s="56" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8916,7 +8919,7 @@
       <c r="C53" s="8">
         <v>74</v>
       </c>
-      <c r="D53" s="168" t="s">
+      <c r="D53" s="56" t="s">
         <v>459</v>
       </c>
     </row>
@@ -8928,7 +8931,7 @@
       <c r="C54" s="8">
         <v>73.84</v>
       </c>
-      <c r="D54" s="168" t="s">
+      <c r="D54" s="56" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8940,7 +8943,7 @@
       <c r="C55" s="8">
         <v>68.44</v>
       </c>
-      <c r="D55" s="168" t="s">
+      <c r="D55" s="56" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8952,7 +8955,7 @@
       <c r="C56" s="8">
         <v>71.06</v>
       </c>
-      <c r="D56" s="168" t="s">
+      <c r="D56" s="56" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8964,7 +8967,7 @@
       <c r="C57" s="8">
         <v>81.55</v>
       </c>
-      <c r="D57" s="168" t="s">
+      <c r="D57" s="56" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8976,7 +8979,7 @@
       <c r="C58" s="9">
         <v>94.4</v>
       </c>
-      <c r="D58" s="168" t="s">
+      <c r="D58" s="56" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8988,7 +8991,7 @@
       <c r="C59" s="9">
         <v>93.7</v>
       </c>
-      <c r="D59" s="168" t="s">
+      <c r="D59" s="56" t="s">
         <v>460</v>
       </c>
     </row>
@@ -9000,7 +9003,7 @@
       <c r="C60" s="9">
         <v>95.5</v>
       </c>
-      <c r="D60" s="168" t="s">
+      <c r="D60" s="56" t="s">
         <v>460</v>
       </c>
     </row>
@@ -9012,7 +9015,7 @@
       <c r="C61" s="9">
         <v>93.7</v>
       </c>
-      <c r="D61" s="168" t="s">
+      <c r="D61" s="56" t="s">
         <v>460</v>
       </c>
     </row>
@@ -9024,12 +9027,65 @@
       <c r="C62" s="9">
         <v>95.1</v>
       </c>
-      <c r="D62" s="168" t="s">
+      <c r="D62" s="56" t="s">
         <v>460</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:B61"/>
@@ -9039,59 +9095,6 @@
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
     <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9120,28 +9123,28 @@
       <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
     </row>
     <row r="2" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="64"/>
+      <c r="B2" s="94"/>
       <c r="C2" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="68"/>
     </row>
     <row r="3" spans="1:7" ht="6.75" customHeight="1">
       <c r="A3" s="58" t="s">
@@ -9154,8 +9157,8 @@
       <c r="D3" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:7" ht="6.75" customHeight="1">
       <c r="A4" s="58" t="s">
@@ -9168,8 +9171,8 @@
       <c r="D4" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:7" ht="6.75" customHeight="1">
       <c r="A5" s="58" t="s">
@@ -9182,8 +9185,8 @@
       <c r="D5" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="68"/>
     </row>
     <row r="6" spans="1:7" ht="6.75" customHeight="1">
       <c r="A6" s="58" t="s">
@@ -9196,8 +9199,8 @@
       <c r="D6" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="68"/>
     </row>
     <row r="7" spans="1:7" ht="6.75" customHeight="1">
       <c r="A7" s="58" t="s">
@@ -9210,8 +9213,8 @@
       <c r="D7" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="68"/>
     </row>
     <row r="8" spans="1:7" ht="6.75" customHeight="1">
       <c r="A8" s="58" t="s">
@@ -9224,8 +9227,8 @@
       <c r="D8" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="1:7" ht="6.75" customHeight="1">
       <c r="A9" s="58" t="s">
@@ -9238,8 +9241,8 @@
       <c r="D9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="68"/>
     </row>
     <row r="10" spans="1:7" ht="6.75" customHeight="1">
       <c r="A10" s="58" t="s">
@@ -9252,8 +9255,8 @@
       <c r="D10" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="66"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="68"/>
     </row>
     <row r="11" spans="1:7" ht="6.75" customHeight="1">
       <c r="A11" s="58" t="s">
@@ -9266,8 +9269,8 @@
       <c r="D11" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="65"/>
-      <c r="F11" s="66"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="68"/>
     </row>
     <row r="12" spans="1:7" ht="6.75" customHeight="1">
       <c r="A12" s="58" t="s">
@@ -9280,87 +9283,87 @@
       <c r="D12" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="65"/>
-      <c r="F12" s="66"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="68"/>
     </row>
     <row r="13" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="67"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
     </row>
     <row r="14" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
     </row>
     <row r="15" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
     </row>
     <row r="16" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="91"/>
     </row>
     <row r="17" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A17" s="66" t="s">
+      <c r="A17" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
     </row>
     <row r="18" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
     </row>
     <row r="19" spans="1:7" ht="7.5" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="62"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="82"/>
     </row>
     <row r="20" spans="1:7" ht="11.25" customHeight="1">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="72"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="17" t="s">
         <v>89</v>
       </c>
@@ -9370,7 +9373,7 @@
       <c r="E20" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="F20" s="65"/>
+      <c r="F20" s="85"/>
     </row>
     <row r="21" spans="1:7" ht="6.75" customHeight="1">
       <c r="A21" s="73" t="s">
@@ -9386,7 +9389,7 @@
       <c r="E21" s="21">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="F21" s="65"/>
+      <c r="F21" s="85"/>
     </row>
     <row r="22" spans="1:7" ht="6.75" customHeight="1">
       <c r="A22" s="75"/>
@@ -9400,7 +9403,7 @@
       <c r="E22" s="21">
         <v>4.4299999999999999E-2</v>
       </c>
-      <c r="F22" s="65"/>
+      <c r="F22" s="85"/>
     </row>
     <row r="23" spans="1:7" ht="6.75" customHeight="1">
       <c r="A23" s="75"/>
@@ -9414,7 +9417,7 @@
       <c r="E23" s="21">
         <v>4.58E-2</v>
       </c>
-      <c r="F23" s="65"/>
+      <c r="F23" s="85"/>
     </row>
     <row r="24" spans="1:7" ht="6.75" customHeight="1">
       <c r="A24" s="75"/>
@@ -9428,7 +9431,7 @@
       <c r="E24" s="21">
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="F24" s="65"/>
+      <c r="F24" s="85"/>
     </row>
     <row r="25" spans="1:7" ht="6.75" customHeight="1">
       <c r="A25" s="75"/>
@@ -9442,7 +9445,7 @@
       <c r="E25" s="21">
         <v>4.99E-2</v>
       </c>
-      <c r="F25" s="65"/>
+      <c r="F25" s="85"/>
     </row>
     <row r="26" spans="1:7" ht="6.75" customHeight="1">
       <c r="A26" s="75"/>
@@ -9456,7 +9459,7 @@
       <c r="E26" s="21">
         <v>6.2600000000000003E-2</v>
       </c>
-      <c r="F26" s="65"/>
+      <c r="F26" s="85"/>
     </row>
     <row r="27" spans="1:7" ht="6.75" customHeight="1">
       <c r="A27" s="75"/>
@@ -9470,7 +9473,7 @@
       <c r="E27" s="21">
         <v>6.2700000000000006E-2</v>
       </c>
-      <c r="F27" s="65"/>
+      <c r="F27" s="85"/>
     </row>
     <row r="28" spans="1:7" ht="6.75" customHeight="1">
       <c r="A28" s="75"/>
@@ -9484,7 +9487,7 @@
       <c r="E28" s="21">
         <v>6.3E-2</v>
       </c>
-      <c r="F28" s="65"/>
+      <c r="F28" s="85"/>
     </row>
     <row r="29" spans="1:7" ht="6.75" customHeight="1">
       <c r="A29" s="75"/>
@@ -9498,7 +9501,7 @@
       <c r="E29" s="21">
         <v>6.4699999999999994E-2</v>
       </c>
-      <c r="F29" s="65"/>
+      <c r="F29" s="85"/>
     </row>
     <row r="30" spans="1:7" ht="6.75" customHeight="1">
       <c r="A30" s="75"/>
@@ -9512,7 +9515,7 @@
       <c r="E30" s="21">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="F30" s="65"/>
+      <c r="F30" s="85"/>
     </row>
     <row r="31" spans="1:7" ht="6.75" customHeight="1">
       <c r="A31" s="75"/>
@@ -9526,7 +9529,7 @@
       <c r="E31" s="21">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F31" s="65"/>
+      <c r="F31" s="85"/>
     </row>
     <row r="32" spans="1:7" ht="6.75" customHeight="1">
       <c r="A32" s="75"/>
@@ -9540,7 +9543,7 @@
       <c r="E32" s="21">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="F32" s="65"/>
+      <c r="F32" s="85"/>
     </row>
     <row r="33" spans="1:6" ht="6.75" customHeight="1">
       <c r="A33" s="75"/>
@@ -9554,7 +9557,7 @@
       <c r="E33" s="21">
         <v>4.4600000000000001E-2</v>
       </c>
-      <c r="F33" s="65"/>
+      <c r="F33" s="85"/>
     </row>
     <row r="34" spans="1:6" ht="6.75" customHeight="1">
       <c r="A34" s="75"/>
@@ -9568,7 +9571,7 @@
       <c r="E34" s="21">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="F34" s="65"/>
+      <c r="F34" s="85"/>
     </row>
     <row r="35" spans="1:6" ht="6.75" customHeight="1">
       <c r="A35" s="75"/>
@@ -9582,7 +9585,7 @@
       <c r="E35" s="21">
         <v>3.5499999999999997E-2</v>
       </c>
-      <c r="F35" s="65"/>
+      <c r="F35" s="85"/>
     </row>
     <row r="36" spans="1:6" ht="6.75" customHeight="1">
       <c r="A36" s="75"/>
@@ -9596,7 +9599,7 @@
       <c r="E36" s="21">
         <v>3.04E-2</v>
       </c>
-      <c r="F36" s="65"/>
+      <c r="F36" s="85"/>
     </row>
     <row r="37" spans="1:6" ht="6.75" customHeight="1">
       <c r="A37" s="75"/>
@@ -9610,7 +9613,7 @@
       <c r="E37" s="21">
         <v>2.12E-2</v>
       </c>
-      <c r="F37" s="65"/>
+      <c r="F37" s="85"/>
     </row>
     <row r="38" spans="1:6" ht="6.75" customHeight="1">
       <c r="A38" s="75"/>
@@ -9624,7 +9627,7 @@
       <c r="E38" s="21">
         <v>2.07E-2</v>
       </c>
-      <c r="F38" s="65"/>
+      <c r="F38" s="85"/>
     </row>
     <row r="39" spans="1:6" ht="6.75" customHeight="1">
       <c r="A39" s="75"/>
@@ -9638,7 +9641,7 @@
       <c r="E39" s="21">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F39" s="65"/>
+      <c r="F39" s="85"/>
     </row>
     <row r="40" spans="1:6" ht="6.75" customHeight="1">
       <c r="A40" s="75"/>
@@ -9652,7 +9655,7 @@
       <c r="E40" s="21">
         <v>8.5000000000000006E-3</v>
       </c>
-      <c r="F40" s="65"/>
+      <c r="F40" s="85"/>
     </row>
     <row r="41" spans="1:6" ht="6.75" customHeight="1">
       <c r="A41" s="75"/>
@@ -9666,7 +9669,7 @@
       <c r="E41" s="21">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="F41" s="65"/>
+      <c r="F41" s="85"/>
     </row>
     <row r="42" spans="1:6" ht="6.75" customHeight="1">
       <c r="A42" s="75"/>
@@ -9680,7 +9683,7 @@
       <c r="E42" s="21">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="F42" s="65"/>
+      <c r="F42" s="85"/>
     </row>
     <row r="43" spans="1:6" ht="6.75" customHeight="1">
       <c r="A43" s="75"/>
@@ -9694,7 +9697,7 @@
       <c r="E43" s="21">
         <v>5.1999999999999998E-3</v>
       </c>
-      <c r="F43" s="65"/>
+      <c r="F43" s="85"/>
     </row>
     <row r="44" spans="1:6" ht="6.75" customHeight="1">
       <c r="A44" s="75"/>
@@ -9708,7 +9711,7 @@
       <c r="E44" s="21">
         <v>4.8999999999999998E-3</v>
       </c>
-      <c r="F44" s="65"/>
+      <c r="F44" s="85"/>
     </row>
     <row r="45" spans="1:6" ht="6.75" customHeight="1">
       <c r="A45" s="75"/>
@@ -9722,7 +9725,7 @@
       <c r="E45" s="21">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="F45" s="65"/>
+      <c r="F45" s="85"/>
     </row>
     <row r="46" spans="1:6" ht="6.75" customHeight="1">
       <c r="A46" s="75"/>
@@ -9736,7 +9739,7 @@
       <c r="E46" s="21">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="F46" s="65"/>
+      <c r="F46" s="85"/>
     </row>
     <row r="47" spans="1:6" ht="6.75" customHeight="1">
       <c r="A47" s="75"/>
@@ -9750,7 +9753,7 @@
       <c r="E47" s="21">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="F47" s="65"/>
+      <c r="F47" s="85"/>
     </row>
     <row r="48" spans="1:6" ht="6.75" customHeight="1">
       <c r="A48" s="75"/>
@@ -9764,7 +9767,7 @@
       <c r="E48" s="21">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="F48" s="65"/>
+      <c r="F48" s="85"/>
     </row>
     <row r="49" spans="1:6" ht="6.75" customHeight="1">
       <c r="A49" s="75"/>
@@ -9778,7 +9781,7 @@
       <c r="E49" s="21">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="F49" s="65"/>
+      <c r="F49" s="85"/>
     </row>
     <row r="50" spans="1:6" ht="6.75" customHeight="1">
       <c r="A50" s="75"/>
@@ -9792,7 +9795,7 @@
       <c r="E50" s="21">
         <v>4.5999999999999999E-3</v>
       </c>
-      <c r="F50" s="65"/>
+      <c r="F50" s="85"/>
     </row>
     <row r="51" spans="1:6" ht="6.75" customHeight="1">
       <c r="A51" s="75"/>
@@ -9806,7 +9809,7 @@
       <c r="E51" s="21">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="F51" s="65"/>
+      <c r="F51" s="85"/>
     </row>
     <row r="52" spans="1:6" ht="6.75" customHeight="1">
       <c r="A52" s="75"/>
@@ -9820,7 +9823,7 @@
       <c r="E52" s="21">
         <v>3.8E-3</v>
       </c>
-      <c r="F52" s="65"/>
+      <c r="F52" s="85"/>
     </row>
     <row r="53" spans="1:6" ht="6.75" customHeight="1">
       <c r="A53" s="75"/>
@@ -9834,7 +9837,7 @@
       <c r="E53" s="21">
         <v>1.8E-3</v>
       </c>
-      <c r="F53" s="65"/>
+      <c r="F53" s="85"/>
     </row>
     <row r="54" spans="1:6" ht="6.75" customHeight="1">
       <c r="A54" s="75"/>
@@ -9848,7 +9851,7 @@
       <c r="E54" s="21">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="F54" s="65"/>
+      <c r="F54" s="85"/>
     </row>
     <row r="55" spans="1:6" ht="6.75" customHeight="1">
       <c r="A55" s="75"/>
@@ -9862,7 +9865,7 @@
       <c r="E55" s="21">
         <v>1.5E-3</v>
       </c>
-      <c r="F55" s="65"/>
+      <c r="F55" s="85"/>
     </row>
     <row r="56" spans="1:6" ht="6.75" customHeight="1">
       <c r="A56" s="77"/>
@@ -9876,13 +9879,13 @@
       <c r="E56" s="21">
         <v>1.4E-3</v>
       </c>
-      <c r="F56" s="65"/>
+      <c r="F56" s="85"/>
     </row>
     <row r="57" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A57" s="79" t="s">
+      <c r="A57" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="80"/>
+      <c r="B57" s="87"/>
       <c r="C57" s="6" t="s">
         <v>93</v>
       </c>
@@ -9892,13 +9895,13 @@
       <c r="E57" s="21">
         <v>2.18E-2</v>
       </c>
-      <c r="F57" s="65"/>
+      <c r="F57" s="85"/>
     </row>
     <row r="58" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A58" s="81" t="s">
+      <c r="A58" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="B58" s="82"/>
+      <c r="B58" s="89"/>
       <c r="C58" s="22">
         <v>1975</v>
       </c>
@@ -9908,11 +9911,11 @@
       <c r="E58" s="21">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="F58" s="65"/>
+      <c r="F58" s="85"/>
     </row>
     <row r="59" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A59" s="83"/>
-      <c r="B59" s="84"/>
+      <c r="A59" s="69"/>
+      <c r="B59" s="70"/>
       <c r="C59" s="22">
         <v>1976</v>
       </c>
@@ -9922,11 +9925,11 @@
       <c r="E59" s="21">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="F59" s="65"/>
+      <c r="F59" s="85"/>
     </row>
     <row r="60" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A60" s="83"/>
-      <c r="B60" s="84"/>
+      <c r="A60" s="69"/>
+      <c r="B60" s="70"/>
       <c r="C60" s="6" t="s">
         <v>99</v>
       </c>
@@ -9936,11 +9939,11 @@
       <c r="E60" s="21">
         <v>5.3400000000000003E-2</v>
       </c>
-      <c r="F60" s="65"/>
+      <c r="F60" s="85"/>
     </row>
     <row r="61" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A61" s="83"/>
-      <c r="B61" s="84"/>
+      <c r="A61" s="69"/>
+      <c r="B61" s="70"/>
       <c r="C61" s="6" t="s">
         <v>100</v>
       </c>
@@ -9950,11 +9953,11 @@
       <c r="E61" s="21">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="F61" s="65"/>
+      <c r="F61" s="85"/>
     </row>
     <row r="62" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A62" s="83"/>
-      <c r="B62" s="84"/>
+      <c r="A62" s="69"/>
+      <c r="B62" s="70"/>
       <c r="C62" s="22">
         <v>1981</v>
       </c>
@@ -9964,11 +9967,11 @@
       <c r="E62" s="21">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F62" s="65"/>
+      <c r="F62" s="85"/>
     </row>
     <row r="63" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A63" s="83"/>
-      <c r="B63" s="84"/>
+      <c r="A63" s="69"/>
+      <c r="B63" s="70"/>
       <c r="C63" s="22">
         <v>1982</v>
       </c>
@@ -9978,11 +9981,11 @@
       <c r="E63" s="21">
         <v>6.8099999999999994E-2</v>
       </c>
-      <c r="F63" s="65"/>
+      <c r="F63" s="85"/>
     </row>
     <row r="64" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A64" s="83"/>
-      <c r="B64" s="84"/>
+      <c r="A64" s="69"/>
+      <c r="B64" s="70"/>
       <c r="C64" s="22">
         <v>1983</v>
       </c>
@@ -9992,11 +9995,11 @@
       <c r="E64" s="21">
         <v>7.22E-2</v>
       </c>
-      <c r="F64" s="65"/>
+      <c r="F64" s="85"/>
     </row>
     <row r="65" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A65" s="83"/>
-      <c r="B65" s="84"/>
+      <c r="A65" s="69"/>
+      <c r="B65" s="70"/>
       <c r="C65" s="22">
         <v>1984</v>
       </c>
@@ -10006,11 +10009,11 @@
       <c r="E65" s="21">
         <v>7.6399999999999996E-2</v>
       </c>
-      <c r="F65" s="65"/>
+      <c r="F65" s="85"/>
     </row>
     <row r="66" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A66" s="83"/>
-      <c r="B66" s="84"/>
+      <c r="A66" s="69"/>
+      <c r="B66" s="70"/>
       <c r="C66" s="22">
         <v>1985</v>
       </c>
@@ -10020,11 +10023,11 @@
       <c r="E66" s="21">
         <v>8.0600000000000005E-2</v>
       </c>
-      <c r="F66" s="65"/>
+      <c r="F66" s="85"/>
     </row>
     <row r="67" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A67" s="83"/>
-      <c r="B67" s="84"/>
+      <c r="A67" s="69"/>
+      <c r="B67" s="70"/>
       <c r="C67" s="22">
         <v>1986</v>
       </c>
@@ -10034,11 +10037,11 @@
       <c r="E67" s="21">
         <v>8.48E-2</v>
       </c>
-      <c r="F67" s="65"/>
+      <c r="F67" s="85"/>
     </row>
     <row r="68" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A68" s="83"/>
-      <c r="B68" s="84"/>
+      <c r="A68" s="69"/>
+      <c r="B68" s="70"/>
       <c r="C68" s="6" t="s">
         <v>101</v>
       </c>
@@ -10048,11 +10051,11 @@
       <c r="E68" s="21">
         <v>0.10349999999999999</v>
       </c>
-      <c r="F68" s="65"/>
+      <c r="F68" s="85"/>
     </row>
     <row r="69" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A69" s="83"/>
-      <c r="B69" s="84"/>
+      <c r="A69" s="69"/>
+      <c r="B69" s="70"/>
       <c r="C69" s="22">
         <v>1994</v>
       </c>
@@ -10062,11 +10065,11 @@
       <c r="E69" s="21">
         <v>9.8199999999999996E-2</v>
       </c>
-      <c r="F69" s="65"/>
+      <c r="F69" s="85"/>
     </row>
     <row r="70" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A70" s="83"/>
-      <c r="B70" s="84"/>
+      <c r="A70" s="69"/>
+      <c r="B70" s="70"/>
       <c r="C70" s="22">
         <v>1995</v>
       </c>
@@ -10076,11 +10079,11 @@
       <c r="E70" s="21">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="F70" s="65"/>
+      <c r="F70" s="85"/>
     </row>
     <row r="71" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A71" s="83"/>
-      <c r="B71" s="84"/>
+      <c r="A71" s="69"/>
+      <c r="B71" s="70"/>
       <c r="C71" s="22">
         <v>1996</v>
       </c>
@@ -10090,11 +10093,11 @@
       <c r="E71" s="21">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="F71" s="65"/>
+      <c r="F71" s="85"/>
     </row>
     <row r="72" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A72" s="83"/>
-      <c r="B72" s="84"/>
+      <c r="A72" s="69"/>
+      <c r="B72" s="70"/>
       <c r="C72" s="22">
         <v>1997</v>
       </c>
@@ -10104,11 +10107,11 @@
       <c r="E72" s="21">
         <v>8.7099999999999997E-2</v>
       </c>
-      <c r="F72" s="65"/>
+      <c r="F72" s="85"/>
     </row>
     <row r="73" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A73" s="83"/>
-      <c r="B73" s="84"/>
+      <c r="A73" s="69"/>
+      <c r="B73" s="70"/>
       <c r="C73" s="22">
         <v>1998</v>
       </c>
@@ -10118,11 +10121,11 @@
       <c r="E73" s="21">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="F73" s="65"/>
+      <c r="F73" s="85"/>
     </row>
     <row r="74" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A74" s="83"/>
-      <c r="B74" s="84"/>
+      <c r="A74" s="69"/>
+      <c r="B74" s="70"/>
       <c r="C74" s="22">
         <v>1999</v>
       </c>
@@ -10132,11 +10135,11 @@
       <c r="E74" s="21">
         <v>6.1800000000000001E-2</v>
       </c>
-      <c r="F74" s="65"/>
+      <c r="F74" s="85"/>
     </row>
     <row r="75" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A75" s="83"/>
-      <c r="B75" s="84"/>
+      <c r="A75" s="69"/>
+      <c r="B75" s="70"/>
       <c r="C75" s="22">
         <v>2000</v>
       </c>
@@ -10146,11 +10149,11 @@
       <c r="E75" s="21">
         <v>6.3100000000000003E-2</v>
       </c>
-      <c r="F75" s="65"/>
+      <c r="F75" s="85"/>
     </row>
     <row r="76" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A76" s="83"/>
-      <c r="B76" s="84"/>
+      <c r="A76" s="69"/>
+      <c r="B76" s="70"/>
       <c r="C76" s="22">
         <v>2001</v>
       </c>
@@ -10160,11 +10163,11 @@
       <c r="E76" s="21">
         <v>3.7900000000000003E-2</v>
       </c>
-      <c r="F76" s="65"/>
+      <c r="F76" s="85"/>
     </row>
     <row r="77" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A77" s="83"/>
-      <c r="B77" s="84"/>
+      <c r="A77" s="69"/>
+      <c r="B77" s="70"/>
       <c r="C77" s="22">
         <v>2002</v>
       </c>
@@ -10174,11 +10177,11 @@
       <c r="E77" s="21">
         <v>4.24E-2</v>
       </c>
-      <c r="F77" s="65"/>
+      <c r="F77" s="85"/>
     </row>
     <row r="78" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A78" s="83"/>
-      <c r="B78" s="84"/>
+      <c r="A78" s="69"/>
+      <c r="B78" s="70"/>
       <c r="C78" s="22">
         <v>2003</v>
       </c>
@@ -10188,11 +10191,11 @@
       <c r="E78" s="21">
         <v>3.73E-2</v>
       </c>
-      <c r="F78" s="65"/>
+      <c r="F78" s="85"/>
     </row>
     <row r="79" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A79" s="83"/>
-      <c r="B79" s="84"/>
+      <c r="A79" s="69"/>
+      <c r="B79" s="70"/>
       <c r="C79" s="22">
         <v>2004</v>
       </c>
@@ -10202,11 +10205,11 @@
       <c r="E79" s="21">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="F79" s="65"/>
+      <c r="F79" s="85"/>
     </row>
     <row r="80" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A80" s="83"/>
-      <c r="B80" s="84"/>
+      <c r="A80" s="69"/>
+      <c r="B80" s="70"/>
       <c r="C80" s="22">
         <v>2005</v>
       </c>
@@ -10216,11 +10219,11 @@
       <c r="E80" s="21">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="F80" s="65"/>
+      <c r="F80" s="85"/>
     </row>
     <row r="81" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A81" s="83"/>
-      <c r="B81" s="84"/>
+      <c r="A81" s="69"/>
+      <c r="B81" s="70"/>
       <c r="C81" s="22">
         <v>2006</v>
       </c>
@@ -10230,11 +10233,11 @@
       <c r="E81" s="21">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="F81" s="65"/>
+      <c r="F81" s="85"/>
     </row>
     <row r="82" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A82" s="83"/>
-      <c r="B82" s="84"/>
+      <c r="A82" s="69"/>
+      <c r="B82" s="70"/>
       <c r="C82" s="22">
         <v>2007</v>
       </c>
@@ -10244,11 +10247,11 @@
       <c r="E82" s="21">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="F82" s="65"/>
+      <c r="F82" s="85"/>
     </row>
     <row r="83" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A83" s="83"/>
-      <c r="B83" s="84"/>
+      <c r="A83" s="69"/>
+      <c r="B83" s="70"/>
       <c r="C83" s="22">
         <v>2008</v>
       </c>
@@ -10258,11 +10261,11 @@
       <c r="E83" s="21">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F83" s="65"/>
+      <c r="F83" s="85"/>
     </row>
     <row r="84" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A84" s="83"/>
-      <c r="B84" s="84"/>
+      <c r="A84" s="69"/>
+      <c r="B84" s="70"/>
       <c r="C84" s="22">
         <v>2009</v>
       </c>
@@ -10272,11 +10275,11 @@
       <c r="E84" s="21">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="F84" s="65"/>
+      <c r="F84" s="85"/>
     </row>
     <row r="85" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A85" s="83"/>
-      <c r="B85" s="84"/>
+      <c r="A85" s="69"/>
+      <c r="B85" s="70"/>
       <c r="C85" s="22">
         <v>2010</v>
       </c>
@@ -10286,11 +10289,11 @@
       <c r="E85" s="21">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="F85" s="65"/>
+      <c r="F85" s="85"/>
     </row>
     <row r="86" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A86" s="83"/>
-      <c r="B86" s="84"/>
+      <c r="A86" s="69"/>
+      <c r="B86" s="70"/>
       <c r="C86" s="22">
         <v>2011</v>
       </c>
@@ -10300,11 +10303,11 @@
       <c r="E86" s="21">
         <v>3.3999999999999998E-3</v>
       </c>
-      <c r="F86" s="65"/>
+      <c r="F86" s="85"/>
     </row>
     <row r="87" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A87" s="83"/>
-      <c r="B87" s="84"/>
+      <c r="A87" s="69"/>
+      <c r="B87" s="70"/>
       <c r="C87" s="22">
         <v>2012</v>
       </c>
@@ -10314,11 +10317,11 @@
       <c r="E87" s="21">
         <v>3.3E-3</v>
       </c>
-      <c r="F87" s="65"/>
+      <c r="F87" s="85"/>
     </row>
     <row r="88" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A88" s="83"/>
-      <c r="B88" s="84"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="70"/>
       <c r="C88" s="22">
         <v>2013</v>
       </c>
@@ -10328,11 +10331,11 @@
       <c r="E88" s="21">
         <v>3.5000000000000001E-3</v>
       </c>
-      <c r="F88" s="65"/>
+      <c r="F88" s="85"/>
     </row>
     <row r="89" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A89" s="83"/>
-      <c r="B89" s="84"/>
+      <c r="A89" s="69"/>
+      <c r="B89" s="70"/>
       <c r="C89" s="22">
         <v>2014</v>
       </c>
@@ -10342,11 +10345,11 @@
       <c r="E89" s="21">
         <v>3.3E-3</v>
       </c>
-      <c r="F89" s="65"/>
+      <c r="F89" s="85"/>
     </row>
     <row r="90" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A90" s="83"/>
-      <c r="B90" s="84"/>
+      <c r="A90" s="69"/>
+      <c r="B90" s="70"/>
       <c r="C90" s="22">
         <v>2015</v>
       </c>
@@ -10356,11 +10359,11 @@
       <c r="E90" s="21">
         <v>3.0999999999999999E-3</v>
       </c>
-      <c r="F90" s="65"/>
+      <c r="F90" s="85"/>
     </row>
     <row r="91" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A91" s="83"/>
-      <c r="B91" s="84"/>
+      <c r="A91" s="69"/>
+      <c r="B91" s="70"/>
       <c r="C91" s="22">
         <v>2016</v>
       </c>
@@ -10370,11 +10373,11 @@
       <c r="E91" s="21">
         <v>2.8999999999999998E-3</v>
       </c>
-      <c r="F91" s="65"/>
+      <c r="F91" s="85"/>
     </row>
     <row r="92" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A92" s="83"/>
-      <c r="B92" s="84"/>
+      <c r="A92" s="69"/>
+      <c r="B92" s="70"/>
       <c r="C92" s="22">
         <v>2017</v>
       </c>
@@ -10384,11 +10387,11 @@
       <c r="E92" s="21">
         <v>1.8E-3</v>
       </c>
-      <c r="F92" s="65"/>
+      <c r="F92" s="85"/>
     </row>
     <row r="93" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A93" s="83"/>
-      <c r="B93" s="84"/>
+      <c r="A93" s="69"/>
+      <c r="B93" s="70"/>
       <c r="C93" s="22">
         <v>2018</v>
       </c>
@@ -10398,11 +10401,11 @@
       <c r="E93" s="21">
         <v>1.5E-3</v>
       </c>
-      <c r="F93" s="65"/>
+      <c r="F93" s="85"/>
     </row>
     <row r="94" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A94" s="83"/>
-      <c r="B94" s="84"/>
+      <c r="A94" s="69"/>
+      <c r="B94" s="70"/>
       <c r="C94" s="22">
         <v>2019</v>
       </c>
@@ -10412,11 +10415,11 @@
       <c r="E94" s="21">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="F94" s="65"/>
+      <c r="F94" s="85"/>
     </row>
     <row r="95" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A95" s="91"/>
-      <c r="B95" s="92"/>
+      <c r="A95" s="71"/>
+      <c r="B95" s="72"/>
       <c r="C95" s="22">
         <v>2020</v>
       </c>
@@ -10426,7 +10429,7 @@
       <c r="E95" s="21">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="F95" s="65"/>
+      <c r="F95" s="85"/>
     </row>
     <row r="96" spans="1:6" ht="6.75" customHeight="1">
       <c r="A96" s="73" t="s">
@@ -10442,7 +10445,7 @@
       <c r="E96" s="21">
         <v>4.9700000000000001E-2</v>
       </c>
-      <c r="F96" s="65"/>
+      <c r="F96" s="85"/>
     </row>
     <row r="97" spans="1:6" ht="6.75" customHeight="1">
       <c r="A97" s="75"/>
@@ -10456,7 +10459,7 @@
       <c r="E97" s="21">
         <v>5.3800000000000001E-2</v>
       </c>
-      <c r="F97" s="65"/>
+      <c r="F97" s="85"/>
     </row>
     <row r="98" spans="1:6" ht="6.75" customHeight="1">
       <c r="A98" s="75"/>
@@ -10470,7 +10473,7 @@
       <c r="E98" s="21">
         <v>5.1499999999999997E-2</v>
       </c>
-      <c r="F98" s="65"/>
+      <c r="F98" s="85"/>
     </row>
     <row r="99" spans="1:6" ht="6.75" customHeight="1">
       <c r="A99" s="75"/>
@@ -10484,7 +10487,7 @@
       <c r="E99" s="21">
         <v>8.4900000000000003E-2</v>
       </c>
-      <c r="F99" s="65"/>
+      <c r="F99" s="85"/>
     </row>
     <row r="100" spans="1:6" ht="6.75" customHeight="1">
       <c r="A100" s="75"/>
@@ -10498,7 +10501,7 @@
       <c r="E100" s="21">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="F100" s="65"/>
+      <c r="F100" s="85"/>
     </row>
     <row r="101" spans="1:6" ht="6.75" customHeight="1">
       <c r="A101" s="75"/>
@@ -10512,7 +10515,7 @@
       <c r="E101" s="21">
         <v>0.1142</v>
       </c>
-      <c r="F101" s="65"/>
+      <c r="F101" s="85"/>
     </row>
     <row r="102" spans="1:6" ht="6.75" customHeight="1">
       <c r="A102" s="75"/>
@@ -10526,7 +10529,7 @@
       <c r="E102" s="21">
         <v>0.16800000000000001</v>
       </c>
-      <c r="F102" s="65"/>
+      <c r="F102" s="85"/>
     </row>
     <row r="103" spans="1:6" ht="6.75" customHeight="1">
       <c r="A103" s="75"/>
@@ -10540,7 +10543,7 @@
       <c r="E103" s="21">
         <v>0.1726</v>
       </c>
-      <c r="F103" s="65"/>
+      <c r="F103" s="85"/>
     </row>
     <row r="104" spans="1:6" ht="6.75" customHeight="1">
       <c r="A104" s="75"/>
@@ -10554,7 +10557,7 @@
       <c r="E104" s="21">
         <v>0.17499999999999999</v>
       </c>
-      <c r="F104" s="65"/>
+      <c r="F104" s="85"/>
     </row>
     <row r="105" spans="1:6" ht="6.75" customHeight="1">
       <c r="A105" s="75"/>
@@ -10568,7 +10571,7 @@
       <c r="E105" s="21">
         <v>0.1724</v>
       </c>
-      <c r="F105" s="65"/>
+      <c r="F105" s="85"/>
     </row>
     <row r="106" spans="1:6" ht="6.75" customHeight="1">
       <c r="A106" s="75"/>
@@ -10582,7 +10585,7 @@
       <c r="E106" s="21">
         <v>0.16600000000000001</v>
       </c>
-      <c r="F106" s="65"/>
+      <c r="F106" s="85"/>
     </row>
     <row r="107" spans="1:6" ht="6.75" customHeight="1">
       <c r="A107" s="75"/>
@@ -10596,7 +10599,7 @@
       <c r="E107" s="21">
         <v>0.14680000000000001</v>
       </c>
-      <c r="F107" s="65"/>
+      <c r="F107" s="85"/>
     </row>
     <row r="108" spans="1:6" ht="6.75" customHeight="1">
       <c r="A108" s="75"/>
@@ -10610,7 +10613,7 @@
       <c r="E108" s="21">
         <v>0.1673</v>
       </c>
-      <c r="F108" s="65"/>
+      <c r="F108" s="85"/>
     </row>
     <row r="109" spans="1:6" ht="6.75" customHeight="1">
       <c r="A109" s="75"/>
@@ -10624,7 +10627,7 @@
       <c r="E109" s="21">
         <v>0.15529999999999999</v>
       </c>
-      <c r="F109" s="65"/>
+      <c r="F109" s="85"/>
     </row>
     <row r="110" spans="1:6" ht="6.75" customHeight="1">
       <c r="A110" s="75"/>
@@ -10638,7 +10641,7 @@
       <c r="E110" s="21">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="F110" s="65"/>
+      <c r="F110" s="85"/>
     </row>
     <row r="111" spans="1:6" ht="6.75" customHeight="1">
       <c r="A111" s="75"/>
@@ -10652,7 +10655,7 @@
       <c r="E111" s="21">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="F111" s="65"/>
+      <c r="F111" s="85"/>
     </row>
     <row r="112" spans="1:6" ht="6.75" customHeight="1">
       <c r="A112" s="75"/>
@@ -10666,7 +10669,7 @@
       <c r="E112" s="21">
         <v>2.41E-2</v>
       </c>
-      <c r="F112" s="65"/>
+      <c r="F112" s="85"/>
     </row>
     <row r="113" spans="1:6" ht="6.75" customHeight="1">
       <c r="A113" s="75"/>
@@ -10680,7 +10683,7 @@
       <c r="E113" s="21">
         <v>1.5E-3</v>
       </c>
-      <c r="F113" s="65"/>
+      <c r="F113" s="85"/>
     </row>
     <row r="114" spans="1:6" ht="6.75" customHeight="1">
       <c r="A114" s="75"/>
@@ -10694,7 +10697,7 @@
       <c r="E114" s="21">
         <v>1.5E-3</v>
       </c>
-      <c r="F114" s="65"/>
+      <c r="F114" s="85"/>
     </row>
     <row r="115" spans="1:6" ht="6.75" customHeight="1">
       <c r="A115" s="75"/>
@@ -10708,7 +10711,7 @@
       <c r="E115" s="21">
         <v>1.5E-3</v>
       </c>
-      <c r="F115" s="65"/>
+      <c r="F115" s="85"/>
     </row>
     <row r="116" spans="1:6" ht="6.75" customHeight="1">
       <c r="A116" s="75"/>
@@ -10722,7 +10725,7 @@
       <c r="E116" s="21">
         <v>1.5E-3</v>
       </c>
-      <c r="F116" s="65"/>
+      <c r="F116" s="85"/>
     </row>
     <row r="117" spans="1:6" ht="6.75" customHeight="1">
       <c r="A117" s="75"/>
@@ -10736,7 +10739,7 @@
       <c r="E117" s="21">
         <v>1.5E-3</v>
       </c>
-      <c r="F117" s="65"/>
+      <c r="F117" s="85"/>
     </row>
     <row r="118" spans="1:6" ht="6.75" customHeight="1">
       <c r="A118" s="75"/>
@@ -10750,7 +10753,7 @@
       <c r="E118" s="21">
         <v>1.5E-3</v>
       </c>
-      <c r="F118" s="65"/>
+      <c r="F118" s="85"/>
     </row>
     <row r="119" spans="1:6" ht="6.75" customHeight="1">
       <c r="A119" s="75"/>
@@ -10764,7 +10767,7 @@
       <c r="E119" s="21">
         <v>1.5E-3</v>
       </c>
-      <c r="F119" s="65"/>
+      <c r="F119" s="85"/>
     </row>
     <row r="120" spans="1:6" ht="6.75" customHeight="1">
       <c r="A120" s="75"/>
@@ -10778,7 +10781,7 @@
       <c r="E120" s="21">
         <v>1.5E-3</v>
       </c>
-      <c r="F120" s="65"/>
+      <c r="F120" s="85"/>
     </row>
     <row r="121" spans="1:6" ht="6.75" customHeight="1">
       <c r="A121" s="75"/>
@@ -10792,7 +10795,7 @@
       <c r="E121" s="21">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="F121" s="65"/>
+      <c r="F121" s="85"/>
     </row>
     <row r="122" spans="1:6" ht="6.75" customHeight="1">
       <c r="A122" s="75"/>
@@ -10806,7 +10809,7 @@
       <c r="E122" s="21">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="F122" s="65"/>
+      <c r="F122" s="85"/>
     </row>
     <row r="123" spans="1:6" ht="6.75" customHeight="1">
       <c r="A123" s="75"/>
@@ -10820,7 +10823,7 @@
       <c r="E123" s="21">
         <v>8.3999999999999995E-3</v>
       </c>
-      <c r="F123" s="65"/>
+      <c r="F123" s="85"/>
     </row>
     <row r="124" spans="1:6" ht="6.75" customHeight="1">
       <c r="A124" s="75"/>
@@ -10834,7 +10837,7 @@
       <c r="E124" s="21">
         <v>8.2000000000000007E-3</v>
       </c>
-      <c r="F124" s="65"/>
+      <c r="F124" s="85"/>
     </row>
     <row r="125" spans="1:6" ht="6.75" customHeight="1">
       <c r="A125" s="75"/>
@@ -10848,7 +10851,7 @@
       <c r="E125" s="21">
         <v>9.1000000000000004E-3</v>
       </c>
-      <c r="F125" s="65"/>
+      <c r="F125" s="85"/>
     </row>
     <row r="126" spans="1:6" ht="6.75" customHeight="1">
       <c r="A126" s="77"/>
@@ -10862,13 +10865,13 @@
       <c r="E126" s="21">
         <v>9.7999999999999997E-3</v>
       </c>
-      <c r="F126" s="65"/>
+      <c r="F126" s="85"/>
     </row>
     <row r="127" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A127" s="85" t="s">
+      <c r="A127" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="B127" s="86"/>
+      <c r="B127" s="63"/>
       <c r="C127" s="6" t="s">
         <v>109</v>
       </c>
@@ -10878,11 +10881,11 @@
       <c r="E127" s="24">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="F127" s="65"/>
+      <c r="F127" s="85"/>
     </row>
     <row r="128" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A128" s="87"/>
-      <c r="B128" s="88"/>
+      <c r="A128" s="64"/>
+      <c r="B128" s="65"/>
       <c r="C128" s="6" t="s">
         <v>110</v>
       </c>
@@ -10892,11 +10895,11 @@
       <c r="E128" s="25">
         <v>0</v>
       </c>
-      <c r="F128" s="65"/>
+      <c r="F128" s="85"/>
     </row>
     <row r="129" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A129" s="89"/>
-      <c r="B129" s="90"/>
+      <c r="A129" s="66"/>
+      <c r="B129" s="67"/>
       <c r="C129" s="6" t="s">
         <v>111</v>
       </c>
@@ -10906,63 +10909,49 @@
       <c r="E129" s="24">
         <v>8.3000000000000001E-3</v>
       </c>
-      <c r="F129" s="65"/>
+      <c r="F129" s="85"/>
     </row>
     <row r="130" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A130" s="66" t="s">
+      <c r="A130" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="B130" s="66"/>
-      <c r="C130" s="66"/>
-      <c r="D130" s="66"/>
-      <c r="E130" s="66"/>
-      <c r="F130" s="66"/>
+      <c r="B130" s="68"/>
+      <c r="C130" s="68"/>
+      <c r="D130" s="68"/>
+      <c r="E130" s="68"/>
+      <c r="F130" s="68"/>
     </row>
     <row r="131" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A131" s="66" t="s">
+      <c r="A131" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="B131" s="66"/>
-      <c r="C131" s="66"/>
-      <c r="D131" s="66"/>
-      <c r="E131" s="66"/>
-      <c r="F131" s="66"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="68"/>
+      <c r="D131" s="68"/>
+      <c r="E131" s="68"/>
+      <c r="F131" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A127:B129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B126"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E2:F12"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="B19:G19"/>
@@ -10979,25 +10968,39 @@
     <mergeCell ref="A64:B64"/>
     <mergeCell ref="A65:B65"/>
     <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E2:F12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A127:B129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B126"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -11030,21 +11033,21 @@
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="95"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="97"/>
+      <c r="B2" s="99"/>
       <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
@@ -11057,14 +11060,14 @@
       <c r="F2" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="65"/>
+      <c r="G2" s="85"/>
     </row>
     <row r="3" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="98" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="100" t="s">
         <v>119</v>
       </c>
       <c r="D3" s="6" t="s">
@@ -11076,12 +11079,12 @@
       <c r="F3" s="21">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="G3" s="65"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="99"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="101"/>
       <c r="D4" s="6" t="s">
         <v>121</v>
       </c>
@@ -11091,12 +11094,12 @@
       <c r="F4" s="21">
         <v>1E-3</v>
       </c>
-      <c r="G4" s="65"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A5" s="89"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="100"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="6" t="s">
         <v>122</v>
       </c>
@@ -11106,14 +11109,14 @@
       <c r="F5" s="21">
         <v>1.9199999999999998E-2</v>
       </c>
-      <c r="G5" s="65"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A6" s="85" t="s">
+      <c r="A6" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="98" t="s">
+      <c r="B6" s="63"/>
+      <c r="C6" s="100" t="s">
         <v>119</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -11125,12 +11128,12 @@
       <c r="F6" s="21">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="G6" s="65"/>
+      <c r="G6" s="85"/>
     </row>
     <row r="7" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="99"/>
+      <c r="A7" s="64"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="6" t="s">
         <v>121</v>
       </c>
@@ -11140,12 +11143,12 @@
       <c r="F7" s="21">
         <v>1.4E-3</v>
       </c>
-      <c r="G7" s="65"/>
+      <c r="G7" s="85"/>
     </row>
     <row r="8" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A8" s="89"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="100"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="102"/>
       <c r="D8" s="6" t="s">
         <v>122</v>
       </c>
@@ -11155,14 +11158,14 @@
       <c r="F8" s="21">
         <v>2.1399999999999999E-2</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="85"/>
     </row>
     <row r="9" spans="1:8" ht="6.75" customHeight="1">
       <c r="A9" s="73" t="s">
         <v>124</v>
       </c>
       <c r="B9" s="74"/>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="103" t="s">
         <v>119</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -11174,12 +11177,12 @@
       <c r="F9" s="21">
         <v>4.7999999999999996E-3</v>
       </c>
-      <c r="G9" s="65"/>
+      <c r="G9" s="85"/>
     </row>
     <row r="10" spans="1:8" ht="6.75" customHeight="1">
       <c r="A10" s="77"/>
       <c r="B10" s="78"/>
-      <c r="C10" s="102"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="6" t="s">
         <v>122</v>
       </c>
@@ -11189,13 +11192,13 @@
       <c r="F10" s="21">
         <v>4.3099999999999999E-2</v>
       </c>
-      <c r="G10" s="65"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="11" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="86"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="6" t="s">
         <v>127</v>
       </c>
@@ -11206,11 +11209,11 @@
       <c r="F11" s="24">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G11" s="65"/>
+      <c r="G11" s="85"/>
     </row>
     <row r="12" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A12" s="87"/>
-      <c r="B12" s="88"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="65"/>
       <c r="C12" s="6" t="s">
         <v>128</v>
       </c>
@@ -11221,11 +11224,11 @@
       <c r="F12" s="24">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G12" s="65"/>
+      <c r="G12" s="85"/>
     </row>
     <row r="13" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A13" s="87"/>
-      <c r="B13" s="88"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="6" t="s">
         <v>129</v>
       </c>
@@ -11236,11 +11239,11 @@
       <c r="F13" s="24">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G13" s="65"/>
+      <c r="G13" s="85"/>
     </row>
     <row r="14" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A14" s="87"/>
-      <c r="B14" s="88"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="65"/>
       <c r="C14" s="6" t="s">
         <v>130</v>
       </c>
@@ -11251,11 +11254,11 @@
       <c r="F14" s="24">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G14" s="65"/>
+      <c r="G14" s="85"/>
     </row>
     <row r="15" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A15" s="89"/>
-      <c r="B15" s="90"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="67"/>
       <c r="C15" s="6" t="s">
         <v>131</v>
       </c>
@@ -11266,13 +11269,13 @@
       <c r="F15" s="21">
         <v>1.9E-2</v>
       </c>
-      <c r="G15" s="65"/>
+      <c r="G15" s="85"/>
     </row>
     <row r="16" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="62" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="86"/>
+      <c r="B16" s="63"/>
       <c r="C16" s="6" t="s">
         <v>128</v>
       </c>
@@ -11283,11 +11286,11 @@
       <c r="F16" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G16" s="65"/>
+      <c r="G16" s="85"/>
     </row>
     <row r="17" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A17" s="87"/>
-      <c r="B17" s="88"/>
+      <c r="A17" s="64"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="6" t="s">
         <v>129</v>
       </c>
@@ -11298,11 +11301,11 @@
       <c r="F17" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G17" s="65"/>
+      <c r="G17" s="85"/>
     </row>
     <row r="18" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A18" s="87"/>
-      <c r="B18" s="88"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="6" t="s">
         <v>130</v>
       </c>
@@ -11313,11 +11316,11 @@
       <c r="F18" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G18" s="65"/>
+      <c r="G18" s="85"/>
     </row>
     <row r="19" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A19" s="87"/>
-      <c r="B19" s="88"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
       <c r="C19" s="6" t="s">
         <v>132</v>
       </c>
@@ -11328,11 +11331,11 @@
       <c r="F19" s="24">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G19" s="65"/>
+      <c r="G19" s="85"/>
     </row>
     <row r="20" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A20" s="89"/>
-      <c r="B20" s="90"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
       <c r="C20" s="6" t="s">
         <v>131</v>
       </c>
@@ -11343,7 +11346,7 @@
       <c r="F20" s="24">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="G20" s="65"/>
+      <c r="G20" s="85"/>
     </row>
     <row r="21" spans="1:7" ht="6.75" customHeight="1">
       <c r="A21" s="73" t="s">
@@ -11360,7 +11363,7 @@
       <c r="F21" s="21">
         <v>1E-3</v>
       </c>
-      <c r="G21" s="65"/>
+      <c r="G21" s="85"/>
     </row>
     <row r="22" spans="1:7" ht="6.75" customHeight="1">
       <c r="A22" s="75"/>
@@ -11375,7 +11378,7 @@
       <c r="F22" s="24">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="G22" s="65"/>
+      <c r="G22" s="85"/>
     </row>
     <row r="23" spans="1:7" ht="6.75" customHeight="1">
       <c r="A23" s="75"/>
@@ -11390,7 +11393,7 @@
       <c r="F23" s="21">
         <v>1E-3</v>
       </c>
-      <c r="G23" s="65"/>
+      <c r="G23" s="85"/>
     </row>
     <row r="24" spans="1:7" ht="6.75" customHeight="1">
       <c r="A24" s="77"/>
@@ -11405,13 +11408,13 @@
       <c r="F24" s="21">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G24" s="65"/>
+      <c r="G24" s="85"/>
     </row>
     <row r="25" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="B25" s="86"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="6" t="s">
         <v>127</v>
       </c>
@@ -11422,11 +11425,11 @@
       <c r="F25" s="21">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G25" s="65"/>
+      <c r="G25" s="85"/>
     </row>
     <row r="26" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A26" s="87"/>
-      <c r="B26" s="88"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="65"/>
       <c r="C26" s="6" t="s">
         <v>128</v>
       </c>
@@ -11437,11 +11440,11 @@
       <c r="F26" s="21">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="G26" s="65"/>
+      <c r="G26" s="85"/>
     </row>
     <row r="27" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A27" s="87"/>
-      <c r="B27" s="88"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="65"/>
       <c r="C27" s="6" t="s">
         <v>129</v>
       </c>
@@ -11452,11 +11455,11 @@
       <c r="F27" s="25">
         <v>0</v>
       </c>
-      <c r="G27" s="65"/>
+      <c r="G27" s="85"/>
     </row>
     <row r="28" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A28" s="87"/>
-      <c r="B28" s="88"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="6" t="s">
         <v>130</v>
       </c>
@@ -11467,11 +11470,11 @@
       <c r="F28" s="24">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="G28" s="65"/>
+      <c r="G28" s="85"/>
     </row>
     <row r="29" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A29" s="87"/>
-      <c r="B29" s="88"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="6" t="s">
         <v>132</v>
       </c>
@@ -11482,11 +11485,11 @@
       <c r="F29" s="25">
         <v>0</v>
       </c>
-      <c r="G29" s="65"/>
+      <c r="G29" s="85"/>
     </row>
     <row r="30" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A30" s="89"/>
-      <c r="B30" s="90"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="67"/>
       <c r="C30" s="6" t="s">
         <v>131</v>
       </c>
@@ -11497,13 +11500,13 @@
       <c r="F30" s="21">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G30" s="65"/>
+      <c r="G30" s="85"/>
     </row>
     <row r="31" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A31" s="85" t="s">
+      <c r="A31" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="86"/>
+      <c r="B31" s="63"/>
       <c r="C31" s="6" t="s">
         <v>127</v>
       </c>
@@ -11514,11 +11517,11 @@
       <c r="F31" s="24">
         <v>4.7E-2</v>
       </c>
-      <c r="G31" s="65"/>
+      <c r="G31" s="85"/>
     </row>
     <row r="32" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A32" s="87"/>
-      <c r="B32" s="88"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="6" t="s">
         <v>128</v>
       </c>
@@ -11529,11 +11532,11 @@
       <c r="F32" s="24">
         <v>4.7E-2</v>
       </c>
-      <c r="G32" s="65"/>
+      <c r="G32" s="85"/>
     </row>
     <row r="33" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A33" s="87"/>
-      <c r="B33" s="88"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="6" t="s">
         <v>129</v>
       </c>
@@ -11544,11 +11547,11 @@
       <c r="F33" s="21">
         <v>1E-3</v>
       </c>
-      <c r="G33" s="65"/>
+      <c r="G33" s="85"/>
     </row>
     <row r="34" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A34" s="87"/>
-      <c r="B34" s="88"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="6" t="s">
         <v>130</v>
       </c>
@@ -11559,11 +11562,11 @@
       <c r="F34" s="24">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="G34" s="65"/>
+      <c r="G34" s="85"/>
     </row>
     <row r="35" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A35" s="87"/>
-      <c r="B35" s="88"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="6" t="s">
         <v>132</v>
       </c>
@@ -11574,11 +11577,11 @@
       <c r="F35" s="21">
         <v>1E-3</v>
       </c>
-      <c r="G35" s="65"/>
+      <c r="G35" s="85"/>
     </row>
     <row r="36" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A36" s="89"/>
-      <c r="B36" s="90"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="67"/>
       <c r="C36" s="6" t="s">
         <v>131</v>
       </c>
@@ -11589,60 +11592,60 @@
       <c r="F36" s="21">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="G36" s="65"/>
+      <c r="G36" s="85"/>
     </row>
     <row r="37" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="79" t="s">
         <v>136</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
     </row>
     <row r="38" spans="1:8" ht="6.75" customHeight="1">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A39" s="66" t="s">
+      <c r="A39" s="68" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="68"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
     </row>
     <row r="40" spans="1:8" ht="7.5" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="94"/>
-      <c r="D40" s="94"/>
-      <c r="E40" s="94"/>
-      <c r="F40" s="94"/>
-      <c r="G40" s="94"/>
-      <c r="H40" s="95"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="97"/>
     </row>
     <row r="41" spans="1:8" ht="11.25" customHeight="1">
-      <c r="A41" s="96" t="s">
+      <c r="A41" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="97"/>
+      <c r="B41" s="99"/>
       <c r="C41" s="17" t="s">
         <v>4</v>
       </c>
@@ -11652,8 +11655,8 @@
       <c r="E41" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="F41" s="65"/>
-      <c r="G41" s="66"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="68"/>
     </row>
     <row r="42" spans="1:8" ht="6.75" customHeight="1">
       <c r="A42" s="73" t="s">
@@ -11669,8 +11672,8 @@
       <c r="E42" s="8">
         <v>0.32</v>
       </c>
-      <c r="F42" s="65"/>
-      <c r="G42" s="66"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="68"/>
     </row>
     <row r="43" spans="1:8" ht="6.75" customHeight="1">
       <c r="A43" s="75"/>
@@ -11684,8 +11687,8 @@
       <c r="E43" s="8">
         <v>0.08</v>
       </c>
-      <c r="F43" s="65"/>
-      <c r="G43" s="66"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="68"/>
     </row>
     <row r="44" spans="1:8" ht="6.75" customHeight="1">
       <c r="A44" s="75"/>
@@ -11699,8 +11702,8 @@
       <c r="E44" s="8">
         <v>0.01</v>
       </c>
-      <c r="F44" s="65"/>
-      <c r="G44" s="66"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="68"/>
     </row>
     <row r="45" spans="1:8" ht="6.75" customHeight="1">
       <c r="A45" s="77"/>
@@ -11714,8 +11717,8 @@
       <c r="E45" s="8">
         <v>0.17</v>
       </c>
-      <c r="F45" s="65"/>
-      <c r="G45" s="66"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="68"/>
     </row>
     <row r="46" spans="1:8" ht="6.75" customHeight="1">
       <c r="A46" s="58" t="s">
@@ -11731,8 +11734,8 @@
       <c r="E46" s="8">
         <v>0.26</v>
       </c>
-      <c r="F46" s="65"/>
-      <c r="G46" s="66"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="68"/>
     </row>
     <row r="47" spans="1:8" ht="6.75" customHeight="1">
       <c r="A47" s="73" t="s">
@@ -11748,8 +11751,8 @@
       <c r="E47" s="8">
         <v>0.3</v>
       </c>
-      <c r="F47" s="65"/>
-      <c r="G47" s="66"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="68"/>
     </row>
     <row r="48" spans="1:8" ht="6.75" customHeight="1">
       <c r="A48" s="77"/>
@@ -11763,14 +11766,14 @@
       <c r="E48" s="8">
         <v>0.11</v>
       </c>
-      <c r="F48" s="65"/>
-      <c r="G48" s="66"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="68"/>
     </row>
     <row r="49" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="63"/>
       <c r="C49" s="6" t="s">
         <v>143</v>
       </c>
@@ -11780,12 +11783,12 @@
       <c r="E49" s="28">
         <v>0.47</v>
       </c>
-      <c r="F49" s="65"/>
-      <c r="G49" s="66"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="68"/>
     </row>
     <row r="50" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A50" s="87"/>
-      <c r="B50" s="88"/>
+      <c r="A50" s="64"/>
+      <c r="B50" s="65"/>
       <c r="C50" s="6" t="s">
         <v>144</v>
       </c>
@@ -11795,12 +11798,12 @@
       <c r="E50" s="28">
         <v>1.2</v>
       </c>
-      <c r="F50" s="65"/>
-      <c r="G50" s="66"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="68"/>
     </row>
     <row r="51" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A51" s="87"/>
-      <c r="B51" s="88"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="65"/>
       <c r="C51" s="6" t="s">
         <v>149</v>
       </c>
@@ -11810,12 +11813,12 @@
       <c r="E51" s="28">
         <v>1.2</v>
       </c>
-      <c r="F51" s="65"/>
-      <c r="G51" s="66"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="68"/>
     </row>
     <row r="52" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A52" s="87"/>
-      <c r="B52" s="88"/>
+      <c r="A52" s="64"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="6" t="s">
         <v>150</v>
       </c>
@@ -11825,12 +11828,12 @@
       <c r="E52" s="28">
         <v>1.07</v>
       </c>
-      <c r="F52" s="65"/>
-      <c r="G52" s="66"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="68"/>
     </row>
     <row r="53" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A53" s="87"/>
-      <c r="B53" s="88"/>
+      <c r="A53" s="64"/>
+      <c r="B53" s="65"/>
       <c r="C53" s="6" t="s">
         <v>151</v>
       </c>
@@ -11840,12 +11843,12 @@
       <c r="E53" s="28">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F53" s="65"/>
-      <c r="G53" s="66"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="68"/>
     </row>
     <row r="54" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A54" s="89"/>
-      <c r="B54" s="90"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="67"/>
       <c r="C54" s="6" t="s">
         <v>130</v>
       </c>
@@ -11855,14 +11858,14 @@
       <c r="E54" s="28">
         <v>0.94</v>
       </c>
-      <c r="F54" s="65"/>
-      <c r="G54" s="66"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="68"/>
     </row>
     <row r="55" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="62" t="s">
         <v>152</v>
       </c>
-      <c r="B55" s="86"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="6" t="s">
         <v>143</v>
       </c>
@@ -11872,12 +11875,12 @@
       <c r="E55" s="28">
         <v>0.12</v>
       </c>
-      <c r="F55" s="65"/>
-      <c r="G55" s="66"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="68"/>
     </row>
     <row r="56" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A56" s="87"/>
-      <c r="B56" s="88"/>
+      <c r="A56" s="64"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="6" t="s">
         <v>144</v>
       </c>
@@ -11887,12 +11890,12 @@
       <c r="E56" s="28">
         <v>1.47</v>
       </c>
-      <c r="F56" s="65"/>
-      <c r="G56" s="66"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="68"/>
     </row>
     <row r="57" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A57" s="87"/>
-      <c r="B57" s="88"/>
+      <c r="A57" s="64"/>
+      <c r="B57" s="65"/>
       <c r="C57" s="6" t="s">
         <v>149</v>
       </c>
@@ -11902,12 +11905,12 @@
       <c r="E57" s="28">
         <v>1.48</v>
       </c>
-      <c r="F57" s="65"/>
-      <c r="G57" s="66"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="68"/>
     </row>
     <row r="58" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A58" s="87"/>
-      <c r="B58" s="88"/>
+      <c r="A58" s="64"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="6" t="s">
         <v>150</v>
       </c>
@@ -11917,12 +11920,12 @@
       <c r="E58" s="28">
         <v>0.94</v>
       </c>
-      <c r="F58" s="65"/>
-      <c r="G58" s="66"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="68"/>
     </row>
     <row r="59" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A59" s="87"/>
-      <c r="B59" s="88"/>
+      <c r="A59" s="64"/>
+      <c r="B59" s="65"/>
       <c r="C59" s="6" t="s">
         <v>151</v>
       </c>
@@ -11932,12 +11935,12 @@
       <c r="E59" s="28">
         <v>0.56000000000000005</v>
       </c>
-      <c r="F59" s="65"/>
-      <c r="G59" s="66"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="68"/>
     </row>
     <row r="60" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A60" s="89"/>
-      <c r="B60" s="90"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="67"/>
       <c r="C60" s="6" t="s">
         <v>130</v>
       </c>
@@ -11947,8 +11950,8 @@
       <c r="E60" s="28">
         <v>0.5</v>
       </c>
-      <c r="F60" s="65"/>
-      <c r="G60" s="66"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7" ht="6.75" customHeight="1">
       <c r="A61" s="73" t="s">
@@ -11964,8 +11967,8 @@
       <c r="E61" s="28">
         <v>0.31</v>
       </c>
-      <c r="F61" s="65"/>
-      <c r="G61" s="66"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="68"/>
     </row>
     <row r="62" spans="1:7" ht="6.75" customHeight="1">
       <c r="A62" s="75"/>
@@ -11979,8 +11982,8 @@
       <c r="E62" s="28">
         <v>1.49</v>
       </c>
-      <c r="F62" s="65"/>
-      <c r="G62" s="66"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="68"/>
     </row>
     <row r="63" spans="1:7" ht="6.75" customHeight="1">
       <c r="A63" s="75"/>
@@ -11994,8 +11997,8 @@
       <c r="E63" s="28">
         <v>0.49</v>
       </c>
-      <c r="F63" s="65"/>
-      <c r="G63" s="66"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="68"/>
     </row>
     <row r="64" spans="1:7" ht="6.75" customHeight="1">
       <c r="A64" s="77"/>
@@ -12009,14 +12012,14 @@
       <c r="E64" s="28">
         <v>0.63</v>
       </c>
-      <c r="F64" s="65"/>
-      <c r="G64" s="66"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="68"/>
     </row>
     <row r="65" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A65" s="85" t="s">
+      <c r="A65" s="62" t="s">
         <v>154</v>
       </c>
-      <c r="B65" s="86"/>
+      <c r="B65" s="63"/>
       <c r="C65" s="6" t="s">
         <v>155</v>
       </c>
@@ -12026,12 +12029,12 @@
       <c r="E65" s="28">
         <v>1.07</v>
       </c>
-      <c r="F65" s="65"/>
-      <c r="G65" s="66"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="68"/>
     </row>
     <row r="66" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A66" s="87"/>
-      <c r="B66" s="88"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="65"/>
       <c r="C66" s="6" t="s">
         <v>119</v>
       </c>
@@ -12041,12 +12044,12 @@
       <c r="E66" s="28">
         <v>1.1599999999999999</v>
       </c>
-      <c r="F66" s="65"/>
-      <c r="G66" s="66"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="68"/>
     </row>
     <row r="67" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A67" s="89"/>
-      <c r="B67" s="90"/>
+      <c r="A67" s="66"/>
+      <c r="B67" s="67"/>
       <c r="C67" s="6" t="s">
         <v>130</v>
       </c>
@@ -12056,8 +12059,8 @@
       <c r="E67" s="28">
         <v>0.89</v>
       </c>
-      <c r="F67" s="65"/>
-      <c r="G67" s="66"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="68"/>
     </row>
     <row r="68" spans="1:7" ht="6.75" customHeight="1">
       <c r="A68" s="73" t="s">
@@ -12073,8 +12076,8 @@
       <c r="E68" s="28">
         <v>0.5</v>
       </c>
-      <c r="F68" s="65"/>
-      <c r="G68" s="66"/>
+      <c r="F68" s="85"/>
+      <c r="G68" s="68"/>
     </row>
     <row r="69" spans="1:7" ht="6.75" customHeight="1">
       <c r="A69" s="75"/>
@@ -12088,8 +12091,8 @@
       <c r="E69" s="28">
         <v>1.54</v>
       </c>
-      <c r="F69" s="65"/>
-      <c r="G69" s="66"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="68"/>
     </row>
     <row r="70" spans="1:7" ht="6.75" customHeight="1">
       <c r="A70" s="75"/>
@@ -12103,8 +12106,8 @@
       <c r="E70" s="28">
         <v>0.6</v>
       </c>
-      <c r="F70" s="65"/>
-      <c r="G70" s="66"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="68"/>
     </row>
     <row r="71" spans="1:7" ht="6.75" customHeight="1">
       <c r="A71" s="77"/>
@@ -12118,14 +12121,14 @@
       <c r="E71" s="8">
         <v>0.64</v>
       </c>
-      <c r="F71" s="65"/>
-      <c r="G71" s="66"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="68"/>
     </row>
     <row r="72" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A72" s="85" t="s">
+      <c r="A72" s="62" t="s">
         <v>157</v>
       </c>
-      <c r="B72" s="86"/>
+      <c r="B72" s="63"/>
       <c r="C72" s="6" t="s">
         <v>143</v>
       </c>
@@ -12135,12 +12138,12 @@
       <c r="E72" s="25">
         <v>0</v>
       </c>
-      <c r="F72" s="65"/>
-      <c r="G72" s="66"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="68"/>
     </row>
     <row r="73" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A73" s="87"/>
-      <c r="B73" s="88"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="65"/>
       <c r="C73" s="6" t="s">
         <v>144</v>
       </c>
@@ -12150,12 +12153,12 @@
       <c r="E73" s="28">
         <v>2.0499999999999998</v>
       </c>
-      <c r="F73" s="65"/>
-      <c r="G73" s="66"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="68"/>
     </row>
     <row r="74" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A74" s="89"/>
-      <c r="B74" s="90"/>
+      <c r="A74" s="66"/>
+      <c r="B74" s="67"/>
       <c r="C74" s="6" t="s">
         <v>119</v>
       </c>
@@ -12165,14 +12168,14 @@
       <c r="E74" s="28">
         <v>1.27</v>
       </c>
-      <c r="F74" s="65"/>
-      <c r="G74" s="66"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="68"/>
     </row>
     <row r="75" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A75" s="85" t="s">
+      <c r="A75" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="B75" s="86"/>
+      <c r="B75" s="63"/>
       <c r="C75" s="6" t="s">
         <v>155</v>
       </c>
@@ -12182,12 +12185,12 @@
       <c r="E75" s="28">
         <v>1.81</v>
       </c>
-      <c r="F75" s="65"/>
-      <c r="G75" s="66"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="68"/>
     </row>
     <row r="76" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A76" s="87"/>
-      <c r="B76" s="88"/>
+      <c r="A76" s="64"/>
+      <c r="B76" s="65"/>
       <c r="C76" s="6" t="s">
         <v>119</v>
       </c>
@@ -12197,12 +12200,12 @@
       <c r="E76" s="28">
         <v>0.95</v>
       </c>
-      <c r="F76" s="65"/>
-      <c r="G76" s="66"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="68"/>
     </row>
     <row r="77" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A77" s="89"/>
-      <c r="B77" s="90"/>
+      <c r="A77" s="66"/>
+      <c r="B77" s="67"/>
       <c r="C77" s="6" t="s">
         <v>130</v>
       </c>
@@ -12212,8 +12215,8 @@
       <c r="E77" s="28">
         <v>0.01</v>
       </c>
-      <c r="F77" s="65"/>
-      <c r="G77" s="66"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="68"/>
     </row>
     <row r="78" spans="1:7" ht="6.75" customHeight="1">
       <c r="A78" s="73" t="s">
@@ -12229,8 +12232,8 @@
       <c r="E78" s="28">
         <v>0.11</v>
       </c>
-      <c r="F78" s="65"/>
-      <c r="G78" s="66"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="68"/>
     </row>
     <row r="79" spans="1:7" ht="6.75" customHeight="1">
       <c r="A79" s="75"/>
@@ -12244,8 +12247,8 @@
       <c r="E79" s="28">
         <v>1.5</v>
       </c>
-      <c r="F79" s="65"/>
-      <c r="G79" s="66"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="68"/>
     </row>
     <row r="80" spans="1:7" ht="6.75" customHeight="1">
       <c r="A80" s="75"/>
@@ -12259,8 +12262,8 @@
       <c r="E80" s="28">
         <v>0.66</v>
       </c>
-      <c r="F80" s="65"/>
-      <c r="G80" s="66"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="68"/>
     </row>
     <row r="81" spans="1:7" ht="6.75" customHeight="1">
       <c r="A81" s="77"/>
@@ -12274,44 +12277,62 @@
       <c r="E81" s="28">
         <v>0.6</v>
       </c>
-      <c r="F81" s="65"/>
-      <c r="G81" s="66"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="68"/>
     </row>
     <row r="82" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A82" s="69" t="s">
+      <c r="A82" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
+      <c r="B82" s="79"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="79"/>
     </row>
     <row r="83" spans="1:7" ht="6.75" customHeight="1">
-      <c r="A83" s="69" t="s">
+      <c r="A83" s="79" t="s">
         <v>137</v>
       </c>
-      <c r="B83" s="69"/>
-      <c r="C83" s="69"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="69"/>
-      <c r="F83" s="69"/>
-      <c r="G83" s="69"/>
+      <c r="B83" s="79"/>
+      <c r="C83" s="79"/>
+      <c r="D83" s="79"/>
+      <c r="E83" s="79"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="79"/>
     </row>
     <row r="84" spans="1:7" ht="33.75" customHeight="1">
-      <c r="A84" s="66" t="s">
+      <c r="A84" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="68"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="68"/>
+      <c r="F84" s="68"/>
+      <c r="G84" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A68:B71"/>
+    <mergeCell ref="A72:B74"/>
+    <mergeCell ref="A75:B77"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="G2:G36"/>
+    <mergeCell ref="A3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A11:B15"/>
+    <mergeCell ref="A16:B20"/>
+    <mergeCell ref="A21:B24"/>
+    <mergeCell ref="A25:B30"/>
+    <mergeCell ref="A31:B36"/>
+    <mergeCell ref="A65:B67"/>
     <mergeCell ref="A78:B81"/>
     <mergeCell ref="A82:G82"/>
     <mergeCell ref="A83:G83"/>
@@ -12328,24 +12349,6 @@
     <mergeCell ref="A49:B54"/>
     <mergeCell ref="A55:B60"/>
     <mergeCell ref="A61:B64"/>
-    <mergeCell ref="A75:B77"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="G2:G36"/>
-    <mergeCell ref="A3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A11:B15"/>
-    <mergeCell ref="A16:B20"/>
-    <mergeCell ref="A21:B24"/>
-    <mergeCell ref="A25:B30"/>
-    <mergeCell ref="A31:B36"/>
-    <mergeCell ref="A65:B67"/>
-    <mergeCell ref="A68:B71"/>
-    <mergeCell ref="A72:B74"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A38" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -12383,51 +12386,51 @@
       <c r="A1" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="105"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="119"/>
     </row>
     <row r="2" spans="1:12" ht="6.75" customHeight="1">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="63" t="s">
+      <c r="B2" s="124"/>
+      <c r="C2" s="93" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="113" t="s">
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="130" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="114"/>
-      <c r="J2" s="115"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="132"/>
     </row>
     <row r="3" spans="1:12" ht="6.75" customHeight="1">
-      <c r="A3" s="108"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="116" t="s">
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="133" t="s">
         <v>167</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="118" t="s">
+      <c r="E3" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="119"/>
+      <c r="F3" s="136"/>
       <c r="G3" s="30" t="s">
         <v>7</v>
       </c>
@@ -12442,16 +12445,16 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="6.75" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="111"/>
-      <c r="C4" s="117"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="134"/>
       <c r="D4" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="121"/>
+      <c r="F4" s="138"/>
       <c r="G4" s="32" t="s">
         <v>168</v>
       </c>
@@ -12476,10 +12479,10 @@
       <c r="D5" s="33">
         <v>1067.7</v>
       </c>
-      <c r="E5" s="122">
+      <c r="E5" s="120">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="F5" s="123"/>
+      <c r="F5" s="121"/>
       <c r="G5" s="34">
         <v>1.2E-2</v>
       </c>
@@ -12504,10 +12507,10 @@
       <c r="D6" s="35">
         <v>485.2</v>
       </c>
-      <c r="E6" s="122">
+      <c r="E6" s="120">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="F6" s="123"/>
+      <c r="F6" s="121"/>
       <c r="G6" s="34">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -12532,10 +12535,10 @@
       <c r="D7" s="35">
         <v>819.7</v>
       </c>
-      <c r="E7" s="122">
+      <c r="E7" s="120">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F7" s="123"/>
+      <c r="F7" s="121"/>
       <c r="G7" s="34">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -12560,10 +12563,10 @@
       <c r="D8" s="35">
         <v>531.70000000000005</v>
       </c>
-      <c r="E8" s="122">
+      <c r="E8" s="120">
         <v>3.1E-2</v>
       </c>
-      <c r="F8" s="123"/>
+      <c r="F8" s="121"/>
       <c r="G8" s="34">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -12588,10 +12591,10 @@
       <c r="D9" s="35">
         <v>813.6</v>
       </c>
-      <c r="E9" s="122">
+      <c r="E9" s="120">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="F9" s="123"/>
+      <c r="F9" s="121"/>
       <c r="G9" s="34">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -12616,10 +12619,10 @@
       <c r="D10" s="35">
         <v>832.9</v>
       </c>
-      <c r="E10" s="122">
+      <c r="E10" s="120">
         <v>5.2999999999999999E-2</v>
       </c>
-      <c r="F10" s="123"/>
+      <c r="F10" s="121"/>
       <c r="G10" s="34">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -12644,10 +12647,10 @@
       <c r="D11" s="33">
         <v>1134.4000000000001</v>
       </c>
-      <c r="E11" s="122">
+      <c r="E11" s="120">
         <v>0.13500000000000001</v>
       </c>
-      <c r="F11" s="123"/>
+      <c r="F11" s="121"/>
       <c r="G11" s="34">
         <v>2.1000000000000001E-2</v>
       </c>
@@ -12672,10 +12675,10 @@
       <c r="D12" s="33">
         <v>1633.1</v>
       </c>
-      <c r="E12" s="122">
+      <c r="E12" s="120">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F12" s="123"/>
+      <c r="F12" s="121"/>
       <c r="G12" s="34">
         <v>2.7E-2</v>
       </c>
@@ -12700,10 +12703,10 @@
       <c r="D13" s="33">
         <v>1582.1</v>
       </c>
-      <c r="E13" s="122">
+      <c r="E13" s="120">
         <v>0.14799999999999999</v>
       </c>
-      <c r="F13" s="123"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="34">
         <v>2.1999999999999999E-2</v>
       </c>
@@ -12728,10 +12731,10 @@
       <c r="D14" s="35">
         <v>995.8</v>
       </c>
-      <c r="E14" s="122">
+      <c r="E14" s="120">
         <v>0.107</v>
       </c>
-      <c r="F14" s="123"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="34">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -12756,10 +12759,10 @@
       <c r="D15" s="35">
         <v>539.4</v>
       </c>
-      <c r="E15" s="122">
+      <c r="E15" s="120">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F15" s="123"/>
+      <c r="F15" s="121"/>
       <c r="G15" s="34">
         <v>8.9999999999999993E-3</v>
       </c>
@@ -12784,10 +12787,10 @@
       <c r="D16" s="35">
         <v>634.6</v>
       </c>
-      <c r="E16" s="122">
+      <c r="E16" s="120">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F16" s="123"/>
+      <c r="F16" s="121"/>
       <c r="G16" s="34">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -12812,10 +12815,10 @@
       <c r="D17" s="35">
         <v>816.8</v>
       </c>
-      <c r="E17" s="122">
+      <c r="E17" s="120">
         <v>1.9E-2</v>
       </c>
-      <c r="F17" s="123"/>
+      <c r="F17" s="121"/>
       <c r="G17" s="34">
         <v>2E-3</v>
       </c>
@@ -12840,10 +12843,10 @@
       <c r="D18" s="33">
         <v>1210.9000000000001</v>
       </c>
-      <c r="E18" s="122">
+      <c r="E18" s="120">
         <v>0.126</v>
       </c>
-      <c r="F18" s="123"/>
+      <c r="F18" s="121"/>
       <c r="G18" s="34">
         <v>1.6E-2</v>
       </c>
@@ -12868,10 +12871,10 @@
       <c r="D19" s="35">
         <v>233.1</v>
       </c>
-      <c r="E19" s="122">
+      <c r="E19" s="120">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F19" s="123"/>
+      <c r="F19" s="121"/>
       <c r="G19" s="34">
         <v>2E-3</v>
       </c>
@@ -12896,10 +12899,10 @@
       <c r="D20" s="33">
         <v>1558</v>
       </c>
-      <c r="E20" s="122">
+      <c r="E20" s="120">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="F20" s="123"/>
+      <c r="F20" s="121"/>
       <c r="G20" s="34">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -12924,10 +12927,10 @@
       <c r="D21" s="35">
         <v>672.8</v>
       </c>
-      <c r="E21" s="122">
+      <c r="E21" s="120">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="F21" s="123"/>
+      <c r="F21" s="121"/>
       <c r="G21" s="34">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -12952,10 +12955,10 @@
       <c r="D22" s="33">
         <v>1214.0999999999999</v>
       </c>
-      <c r="E22" s="122">
+      <c r="E22" s="120">
         <v>0.115</v>
       </c>
-      <c r="F22" s="123"/>
+      <c r="F22" s="121"/>
       <c r="G22" s="34">
         <v>1.6E-2</v>
       </c>
@@ -12980,10 +12983,10 @@
       <c r="D23" s="33">
         <v>1046.0999999999999</v>
       </c>
-      <c r="E23" s="122">
+      <c r="E23" s="120">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="F23" s="123"/>
+      <c r="F23" s="121"/>
       <c r="G23" s="34">
         <v>1.4E-2</v>
       </c>
@@ -13008,10 +13011,10 @@
       <c r="D24" s="33">
         <v>1158.9000000000001</v>
       </c>
-      <c r="E24" s="122">
+      <c r="E24" s="120">
         <v>0.109</v>
       </c>
-      <c r="F24" s="123"/>
+      <c r="F24" s="121"/>
       <c r="G24" s="34">
         <v>1.6E-2</v>
       </c>
@@ -13036,10 +13039,10 @@
       <c r="D25" s="35">
         <v>991.7</v>
       </c>
-      <c r="E25" s="122">
+      <c r="E25" s="120">
         <v>0.108</v>
       </c>
-      <c r="F25" s="123"/>
+      <c r="F25" s="121"/>
       <c r="G25" s="34">
         <v>1.6E-2</v>
       </c>
@@ -13064,10 +13067,10 @@
       <c r="D26" s="33">
         <v>1031.5999999999999</v>
       </c>
-      <c r="E26" s="122">
+      <c r="E26" s="120">
         <v>0.08</v>
       </c>
-      <c r="F26" s="123"/>
+      <c r="F26" s="121"/>
       <c r="G26" s="34">
         <v>1.2E-2</v>
       </c>
@@ -13092,10 +13095,10 @@
       <c r="D27" s="35">
         <v>772.7</v>
       </c>
-      <c r="E27" s="122">
+      <c r="E27" s="120">
         <v>0.04</v>
       </c>
-      <c r="F27" s="123"/>
+      <c r="F27" s="121"/>
       <c r="G27" s="34">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -13120,10 +13123,10 @@
       <c r="D28" s="33">
         <v>1543</v>
       </c>
-      <c r="E28" s="122">
+      <c r="E28" s="120">
         <v>0.17100000000000001</v>
       </c>
-      <c r="F28" s="123"/>
+      <c r="F28" s="121"/>
       <c r="G28" s="34">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -13148,10 +13151,10 @@
       <c r="D29" s="35">
         <v>891.9</v>
       </c>
-      <c r="E29" s="122">
+      <c r="E29" s="120">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="F29" s="123"/>
+      <c r="F29" s="121"/>
       <c r="G29" s="34">
         <v>0.01</v>
       </c>
@@ -13176,10 +13179,10 @@
       <c r="D30" s="35">
         <v>931.6</v>
       </c>
-      <c r="E30" s="122">
+      <c r="E30" s="120">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="F30" s="123"/>
+      <c r="F30" s="121"/>
       <c r="G30" s="34">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -13204,10 +13207,10 @@
       <c r="D31" s="35">
         <v>639.70000000000005</v>
       </c>
-      <c r="E31" s="122">
+      <c r="E31" s="120">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="F31" s="123"/>
+      <c r="F31" s="121"/>
       <c r="G31" s="34">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -13232,10 +13235,10 @@
       <c r="D32" s="35">
         <v>852.3</v>
       </c>
-      <c r="E32" s="122">
+      <c r="E32" s="120">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="F32" s="123"/>
+      <c r="F32" s="121"/>
       <c r="G32" s="34">
         <v>0.01</v>
       </c>
@@ -13250,133 +13253,133 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="6.75" customHeight="1">
-      <c r="A33" s="124" t="s">
+      <c r="A33" s="122" t="s">
         <v>224</v>
       </c>
-      <c r="B33" s="124"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="124"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="124"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="124"/>
-      <c r="J33" s="124"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="122"/>
+      <c r="J33" s="122"/>
     </row>
     <row r="34" spans="1:12" ht="6.75" customHeight="1">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="79" t="s">
         <v>225</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
     </row>
     <row r="35" spans="1:12" ht="6.75" customHeight="1">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="B35" s="70"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
     </row>
     <row r="36" spans="1:12" ht="14.5" customHeight="1">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="68"/>
+      <c r="I36" s="68"/>
+      <c r="J36" s="68"/>
     </row>
     <row r="37" spans="1:12" ht="6.75" customHeight="1">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="79" t="s">
         <v>227</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
     </row>
     <row r="38" spans="1:12" ht="6.75" customHeight="1">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
     </row>
     <row r="39" spans="1:12" ht="160.25" customHeight="1">
-      <c r="A39" s="125"/>
-      <c r="B39" s="126"/>
-      <c r="C39" s="126"/>
-      <c r="D39" s="126"/>
-      <c r="E39" s="127"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="115"/>
+      <c r="D39" s="115"/>
+      <c r="E39" s="116"/>
     </row>
     <row r="40" spans="1:12" ht="6.75" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B40" s="103" t="s">
+      <c r="B40" s="117" t="s">
         <v>229</v>
       </c>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="104"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104"/>
-      <c r="J40" s="104"/>
-      <c r="K40" s="104"/>
-      <c r="L40" s="105"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
+      <c r="E40" s="118"/>
+      <c r="F40" s="118"/>
+      <c r="G40" s="118"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
+      <c r="J40" s="118"/>
+      <c r="K40" s="118"/>
+      <c r="L40" s="119"/>
     </row>
     <row r="41" spans="1:12" ht="158" customHeight="1"/>
     <row r="42" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A42" s="128"/>
-      <c r="B42" s="129"/>
+      <c r="A42" s="106"/>
+      <c r="B42" s="107"/>
       <c r="C42" s="36" t="s">
         <v>230</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E42" s="130" t="s">
+      <c r="E42" s="108" t="s">
         <v>232</v>
       </c>
-      <c r="F42" s="131"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
+      <c r="F42" s="109"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
     </row>
     <row r="43" spans="1:12" ht="6.75" customHeight="1">
       <c r="A43" s="58" t="s">
@@ -13389,138 +13392,63 @@
       <c r="D43" s="12">
         <v>1.25</v>
       </c>
-      <c r="E43" s="134">
+      <c r="E43" s="112">
         <v>0.125</v>
       </c>
-      <c r="F43" s="135"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="110"/>
+      <c r="H43" s="111"/>
+      <c r="I43" s="111"/>
+      <c r="J43" s="111"/>
+      <c r="K43" s="111"/>
     </row>
     <row r="44" spans="1:12" ht="6.75" customHeight="1">
-      <c r="A44" s="67" t="s">
+      <c r="A44" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="67"/>
+      <c r="B44" s="90"/>
       <c r="C44" s="13"/>
       <c r="D44" s="13"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
+      <c r="E44" s="105"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="91"/>
+      <c r="K44" s="91"/>
     </row>
     <row r="45" spans="1:12" ht="6.75" customHeight="1">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="B45" s="69"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="69"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
     </row>
     <row r="46" spans="1:12" ht="6.75" customHeight="1">
-      <c r="A46" s="69" t="s">
+      <c r="A46" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="69"/>
-      <c r="K46" s="69"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="G44:K44"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="G42:K43"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="B40:L40"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="A2:B4"/>
     <mergeCell ref="C2:G2"/>
@@ -13528,6 +13456,81 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="A36:J36"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="B40:L40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:K43"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:K44"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="A46:K46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A34" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -13557,46 +13560,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="139" t="s">
         <v>235</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="139"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="141"/>
     </row>
     <row r="2" spans="1:6" ht="10.75" customHeight="1">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="142" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
     </row>
     <row r="3" spans="1:6" ht="6.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="117" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="105"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="119"/>
     </row>
     <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" s="38"/>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="142" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
     </row>
     <row r="5" spans="1:6" ht="11.25" customHeight="1">
       <c r="A5" s="37"/>
@@ -13744,23 +13747,23 @@
     </row>
     <row r="13" spans="1:6" ht="26.5" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="B13" s="66" t="s">
+      <c r="B13" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
     </row>
     <row r="14" spans="1:6" ht="33.75" customHeight="1">
       <c r="A14" s="2"/>
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="68" t="s">
         <v>253</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
     </row>
     <row r="15" spans="1:6" ht="55" customHeight="1"/>
   </sheetData>
@@ -13805,45 +13808,45 @@
       <c r="A1" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="117" t="s">
         <v>255</v>
       </c>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="105"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="118"/>
+      <c r="I1" s="119"/>
     </row>
     <row r="2" spans="1:9" ht="18.25" customHeight="1">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="151" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
-      <c r="D2" s="141"/>
-      <c r="E2" s="141"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
     </row>
     <row r="3" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A3" s="66"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="23"/>
-      <c r="C3" s="142" t="s">
+      <c r="C3" s="152" t="s">
         <v>257</v>
       </c>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="65"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="85"/>
     </row>
     <row r="4" spans="1:9" ht="19.75" customHeight="1">
-      <c r="A4" s="66"/>
+      <c r="A4" s="68"/>
       <c r="B4" s="45" t="s">
         <v>258</v>
       </c>
@@ -13865,10 +13868,10 @@
       <c r="H4" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="I4" s="65"/>
+      <c r="I4" s="85"/>
     </row>
     <row r="5" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A5" s="66"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="6" t="s">
         <v>265</v>
       </c>
@@ -13890,10 +13893,10 @@
       <c r="H5" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I5" s="65"/>
+      <c r="I5" s="85"/>
     </row>
     <row r="6" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A6" s="66"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="6" t="s">
         <v>267</v>
       </c>
@@ -13915,10 +13918,10 @@
       <c r="H6" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I6" s="65"/>
+      <c r="I6" s="85"/>
     </row>
     <row r="7" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A7" s="66"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="6" t="s">
         <v>268</v>
       </c>
@@ -13940,10 +13943,10 @@
       <c r="H7" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I7" s="65"/>
+      <c r="I7" s="85"/>
     </row>
     <row r="8" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A8" s="66"/>
+      <c r="A8" s="68"/>
       <c r="B8" s="6" t="s">
         <v>269</v>
       </c>
@@ -13965,10 +13968,10 @@
       <c r="H8" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I8" s="65"/>
+      <c r="I8" s="85"/>
     </row>
     <row r="9" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="6" t="s">
         <v>270</v>
       </c>
@@ -13990,10 +13993,10 @@
       <c r="H9" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I9" s="65"/>
+      <c r="I9" s="85"/>
     </row>
     <row r="10" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A10" s="66"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="6" t="s">
         <v>271</v>
       </c>
@@ -14015,10 +14018,10 @@
       <c r="H10" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I10" s="65"/>
+      <c r="I10" s="85"/>
     </row>
     <row r="11" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A11" s="66"/>
+      <c r="A11" s="68"/>
       <c r="B11" s="6" t="s">
         <v>272</v>
       </c>
@@ -14040,10 +14043,10 @@
       <c r="H11" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I11" s="65"/>
+      <c r="I11" s="85"/>
     </row>
     <row r="12" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A12" s="66"/>
+      <c r="A12" s="68"/>
       <c r="B12" s="6" t="s">
         <v>273</v>
       </c>
@@ -14065,10 +14068,10 @@
       <c r="H12" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I12" s="65"/>
+      <c r="I12" s="85"/>
     </row>
     <row r="13" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A13" s="66"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="6" t="s">
         <v>274</v>
       </c>
@@ -14090,10 +14093,10 @@
       <c r="H13" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I13" s="65"/>
+      <c r="I13" s="85"/>
     </row>
     <row r="14" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A14" s="66"/>
+      <c r="A14" s="68"/>
       <c r="B14" s="6" t="s">
         <v>275</v>
       </c>
@@ -14115,10 +14118,10 @@
       <c r="H14" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I14" s="65"/>
+      <c r="I14" s="85"/>
     </row>
     <row r="15" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A15" s="66"/>
+      <c r="A15" s="68"/>
       <c r="B15" s="6" t="s">
         <v>276</v>
       </c>
@@ -14140,10 +14143,10 @@
       <c r="H15" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I15" s="65"/>
+      <c r="I15" s="85"/>
     </row>
     <row r="16" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A16" s="66"/>
+      <c r="A16" s="68"/>
       <c r="B16" s="6" t="s">
         <v>277</v>
       </c>
@@ -14165,10 +14168,10 @@
       <c r="H16" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I16" s="65"/>
+      <c r="I16" s="85"/>
     </row>
     <row r="17" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A17" s="66"/>
+      <c r="A17" s="68"/>
       <c r="B17" s="6" t="s">
         <v>278</v>
       </c>
@@ -14190,10 +14193,10 @@
       <c r="H17" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I17" s="65"/>
+      <c r="I17" s="85"/>
     </row>
     <row r="18" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A18" s="66"/>
+      <c r="A18" s="68"/>
       <c r="B18" s="6" t="s">
         <v>279</v>
       </c>
@@ -14215,10 +14218,10 @@
       <c r="H18" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I18" s="65"/>
+      <c r="I18" s="85"/>
     </row>
     <row r="19" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A19" s="66"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="6" t="s">
         <v>280</v>
       </c>
@@ -14240,10 +14243,10 @@
       <c r="H19" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I19" s="65"/>
+      <c r="I19" s="85"/>
     </row>
     <row r="20" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A20" s="66"/>
+      <c r="A20" s="68"/>
       <c r="B20" s="6" t="s">
         <v>281</v>
       </c>
@@ -14265,10 +14268,10 @@
       <c r="H20" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I20" s="65"/>
+      <c r="I20" s="85"/>
     </row>
     <row r="21" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A21" s="66"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="6" t="s">
         <v>282</v>
       </c>
@@ -14290,10 +14293,10 @@
       <c r="H21" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I21" s="65"/>
+      <c r="I21" s="85"/>
     </row>
     <row r="22" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A22" s="66"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="6" t="s">
         <v>283</v>
       </c>
@@ -14315,10 +14318,10 @@
       <c r="H22" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I22" s="65"/>
+      <c r="I22" s="85"/>
     </row>
     <row r="23" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A23" s="66"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="6" t="s">
         <v>284</v>
       </c>
@@ -14340,10 +14343,10 @@
       <c r="H23" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I23" s="65"/>
+      <c r="I23" s="85"/>
     </row>
     <row r="24" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A24" s="66"/>
+      <c r="A24" s="68"/>
       <c r="B24" s="6" t="s">
         <v>285</v>
       </c>
@@ -14365,10 +14368,10 @@
       <c r="H24" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I24" s="65"/>
+      <c r="I24" s="85"/>
     </row>
     <row r="25" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A25" s="66"/>
+      <c r="A25" s="68"/>
       <c r="B25" s="6" t="s">
         <v>286</v>
       </c>
@@ -14390,10 +14393,10 @@
       <c r="H25" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I25" s="65"/>
+      <c r="I25" s="85"/>
     </row>
     <row r="26" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A26" s="66"/>
+      <c r="A26" s="68"/>
       <c r="B26" s="6" t="s">
         <v>287</v>
       </c>
@@ -14415,10 +14418,10 @@
       <c r="H26" s="8">
         <v>0.11</v>
       </c>
-      <c r="I26" s="65"/>
+      <c r="I26" s="85"/>
     </row>
     <row r="27" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A27" s="66"/>
+      <c r="A27" s="68"/>
       <c r="B27" s="6" t="s">
         <v>288</v>
       </c>
@@ -14440,10 +14443,10 @@
       <c r="H27" s="8">
         <v>0.11</v>
       </c>
-      <c r="I27" s="65"/>
+      <c r="I27" s="85"/>
     </row>
     <row r="28" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A28" s="66"/>
+      <c r="A28" s="68"/>
       <c r="B28" s="6" t="s">
         <v>289</v>
       </c>
@@ -14465,10 +14468,10 @@
       <c r="H28" s="8">
         <v>0.11</v>
       </c>
-      <c r="I28" s="65"/>
+      <c r="I28" s="85"/>
     </row>
     <row r="29" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A29" s="66"/>
+      <c r="A29" s="68"/>
       <c r="B29" s="6" t="s">
         <v>290</v>
       </c>
@@ -14490,10 +14493,10 @@
       <c r="H29" s="8">
         <v>0.11</v>
       </c>
-      <c r="I29" s="65"/>
+      <c r="I29" s="85"/>
     </row>
     <row r="30" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A30" s="66"/>
+      <c r="A30" s="68"/>
       <c r="B30" s="6" t="s">
         <v>291</v>
       </c>
@@ -14515,10 +14518,10 @@
       <c r="H30" s="8">
         <v>0.11</v>
       </c>
-      <c r="I30" s="65"/>
+      <c r="I30" s="85"/>
     </row>
     <row r="31" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A31" s="66"/>
+      <c r="A31" s="68"/>
       <c r="B31" s="6" t="s">
         <v>292</v>
       </c>
@@ -14540,10 +14543,10 @@
       <c r="H31" s="8">
         <v>0.11</v>
       </c>
-      <c r="I31" s="65"/>
+      <c r="I31" s="85"/>
     </row>
     <row r="32" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A32" s="66"/>
+      <c r="A32" s="68"/>
       <c r="B32" s="6" t="s">
         <v>293</v>
       </c>
@@ -14565,10 +14568,10 @@
       <c r="H32" s="8">
         <v>0.11</v>
       </c>
-      <c r="I32" s="65"/>
+      <c r="I32" s="85"/>
     </row>
     <row r="33" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A33" s="66"/>
+      <c r="A33" s="68"/>
       <c r="B33" s="6" t="s">
         <v>294</v>
       </c>
@@ -14590,10 +14593,10 @@
       <c r="H33" s="8">
         <v>0.11</v>
       </c>
-      <c r="I33" s="65"/>
+      <c r="I33" s="85"/>
     </row>
     <row r="34" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A34" s="66"/>
+      <c r="A34" s="68"/>
       <c r="B34" s="6" t="s">
         <v>295</v>
       </c>
@@ -14615,10 +14618,10 @@
       <c r="H34" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I34" s="65"/>
+      <c r="I34" s="85"/>
     </row>
     <row r="35" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A35" s="66"/>
+      <c r="A35" s="68"/>
       <c r="B35" s="6" t="s">
         <v>296</v>
       </c>
@@ -14640,10 +14643,10 @@
       <c r="H35" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I35" s="65"/>
+      <c r="I35" s="85"/>
     </row>
     <row r="36" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A36" s="66"/>
+      <c r="A36" s="68"/>
       <c r="B36" s="6" t="s">
         <v>297</v>
       </c>
@@ -14665,10 +14668,10 @@
       <c r="H36" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I36" s="65"/>
+      <c r="I36" s="85"/>
     </row>
     <row r="37" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A37" s="66"/>
+      <c r="A37" s="68"/>
       <c r="B37" s="6" t="s">
         <v>298</v>
       </c>
@@ -14690,10 +14693,10 @@
       <c r="H37" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I37" s="65"/>
+      <c r="I37" s="85"/>
     </row>
     <row r="38" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A38" s="66"/>
+      <c r="A38" s="68"/>
       <c r="B38" s="6" t="s">
         <v>299</v>
       </c>
@@ -14715,10 +14718,10 @@
       <c r="H38" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I38" s="65"/>
+      <c r="I38" s="85"/>
     </row>
     <row r="39" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A39" s="66"/>
+      <c r="A39" s="68"/>
       <c r="B39" s="6" t="s">
         <v>300</v>
       </c>
@@ -14740,10 +14743,10 @@
       <c r="H39" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I39" s="65"/>
+      <c r="I39" s="85"/>
     </row>
     <row r="40" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A40" s="66"/>
+      <c r="A40" s="68"/>
       <c r="B40" s="6" t="s">
         <v>301</v>
       </c>
@@ -14765,10 +14768,10 @@
       <c r="H40" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I40" s="65"/>
+      <c r="I40" s="85"/>
     </row>
     <row r="41" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A41" s="66"/>
+      <c r="A41" s="68"/>
       <c r="B41" s="6" t="s">
         <v>302</v>
       </c>
@@ -14790,10 +14793,10 @@
       <c r="H41" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I41" s="65"/>
+      <c r="I41" s="85"/>
     </row>
     <row r="42" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A42" s="66"/>
+      <c r="A42" s="68"/>
       <c r="B42" s="6" t="s">
         <v>303</v>
       </c>
@@ -14815,10 +14818,10 @@
       <c r="H42" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I42" s="65"/>
+      <c r="I42" s="85"/>
     </row>
     <row r="43" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A43" s="66"/>
+      <c r="A43" s="68"/>
       <c r="B43" s="6" t="s">
         <v>304</v>
       </c>
@@ -14840,10 +14843,10 @@
       <c r="H43" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I43" s="65"/>
+      <c r="I43" s="85"/>
     </row>
     <row r="44" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A44" s="66"/>
+      <c r="A44" s="68"/>
       <c r="B44" s="6" t="s">
         <v>305</v>
       </c>
@@ -14865,10 +14868,10 @@
       <c r="H44" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I44" s="65"/>
+      <c r="I44" s="85"/>
     </row>
     <row r="45" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A45" s="66"/>
+      <c r="A45" s="68"/>
       <c r="B45" s="6" t="s">
         <v>306</v>
       </c>
@@ -14890,10 +14893,10 @@
       <c r="H45" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I45" s="65"/>
+      <c r="I45" s="85"/>
     </row>
     <row r="46" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A46" s="66"/>
+      <c r="A46" s="68"/>
       <c r="B46" s="6" t="s">
         <v>307</v>
       </c>
@@ -14915,10 +14918,10 @@
       <c r="H46" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I46" s="65"/>
+      <c r="I46" s="85"/>
     </row>
     <row r="47" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A47" s="66"/>
+      <c r="A47" s="68"/>
       <c r="B47" s="6" t="s">
         <v>308</v>
       </c>
@@ -14940,10 +14943,10 @@
       <c r="H47" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I47" s="65"/>
+      <c r="I47" s="85"/>
     </row>
     <row r="48" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A48" s="66"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="6" t="s">
         <v>309</v>
       </c>
@@ -14965,10 +14968,10 @@
       <c r="H48" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I48" s="65"/>
+      <c r="I48" s="85"/>
     </row>
     <row r="49" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A49" s="66"/>
+      <c r="A49" s="68"/>
       <c r="B49" s="6" t="s">
         <v>310</v>
       </c>
@@ -14990,10 +14993,10 @@
       <c r="H49" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I49" s="65"/>
+      <c r="I49" s="85"/>
     </row>
     <row r="50" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A50" s="66"/>
+      <c r="A50" s="68"/>
       <c r="B50" s="6" t="s">
         <v>311</v>
       </c>
@@ -15015,10 +15018,10 @@
       <c r="H50" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I50" s="65"/>
+      <c r="I50" s="85"/>
     </row>
     <row r="51" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A51" s="66"/>
+      <c r="A51" s="68"/>
       <c r="B51" s="6" t="s">
         <v>312</v>
       </c>
@@ -15040,10 +15043,10 @@
       <c r="H51" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I51" s="65"/>
+      <c r="I51" s="85"/>
     </row>
     <row r="52" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A52" s="66"/>
+      <c r="A52" s="68"/>
       <c r="B52" s="6" t="s">
         <v>313</v>
       </c>
@@ -15065,10 +15068,10 @@
       <c r="H52" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I52" s="65"/>
+      <c r="I52" s="85"/>
     </row>
     <row r="53" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A53" s="66"/>
+      <c r="A53" s="68"/>
       <c r="B53" s="6" t="s">
         <v>314</v>
       </c>
@@ -15090,10 +15093,10 @@
       <c r="H53" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I53" s="65"/>
+      <c r="I53" s="85"/>
     </row>
     <row r="54" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A54" s="66"/>
+      <c r="A54" s="68"/>
       <c r="B54" s="6" t="s">
         <v>315</v>
       </c>
@@ -15115,10 +15118,10 @@
       <c r="H54" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I54" s="65"/>
+      <c r="I54" s="85"/>
     </row>
     <row r="55" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A55" s="66"/>
+      <c r="A55" s="68"/>
       <c r="B55" s="6" t="s">
         <v>316</v>
       </c>
@@ -15140,10 +15143,10 @@
       <c r="H55" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I55" s="65"/>
+      <c r="I55" s="85"/>
     </row>
     <row r="56" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A56" s="66"/>
+      <c r="A56" s="68"/>
       <c r="B56" s="6" t="s">
         <v>317</v>
       </c>
@@ -15165,10 +15168,10 @@
       <c r="H56" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I56" s="65"/>
+      <c r="I56" s="85"/>
     </row>
     <row r="57" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A57" s="66"/>
+      <c r="A57" s="68"/>
       <c r="B57" s="6" t="s">
         <v>318</v>
       </c>
@@ -15190,10 +15193,10 @@
       <c r="H57" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I57" s="65"/>
+      <c r="I57" s="85"/>
     </row>
     <row r="58" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A58" s="66"/>
+      <c r="A58" s="68"/>
       <c r="B58" s="6" t="s">
         <v>19</v>
       </c>
@@ -15215,10 +15218,10 @@
       <c r="H58" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I58" s="65"/>
+      <c r="I58" s="85"/>
     </row>
     <row r="59" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A59" s="66"/>
+      <c r="A59" s="68"/>
       <c r="B59" s="6" t="s">
         <v>319</v>
       </c>
@@ -15240,10 +15243,10 @@
       <c r="H59" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I59" s="65"/>
+      <c r="I59" s="85"/>
     </row>
     <row r="60" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A60" s="66"/>
+      <c r="A60" s="68"/>
       <c r="B60" s="6" t="s">
         <v>320</v>
       </c>
@@ -15265,10 +15268,10 @@
       <c r="H60" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I60" s="65"/>
+      <c r="I60" s="85"/>
     </row>
     <row r="61" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A61" s="66"/>
+      <c r="A61" s="68"/>
       <c r="B61" s="6" t="s">
         <v>321</v>
       </c>
@@ -15290,10 +15293,10 @@
       <c r="H61" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I61" s="65"/>
+      <c r="I61" s="85"/>
     </row>
     <row r="62" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A62" s="66"/>
+      <c r="A62" s="68"/>
       <c r="B62" s="6" t="s">
         <v>322</v>
       </c>
@@ -15315,10 +15318,10 @@
       <c r="H62" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I62" s="65"/>
+      <c r="I62" s="85"/>
     </row>
     <row r="63" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A63" s="66"/>
+      <c r="A63" s="68"/>
       <c r="B63" s="6" t="s">
         <v>323</v>
       </c>
@@ -15340,10 +15343,10 @@
       <c r="H63" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I63" s="65"/>
+      <c r="I63" s="85"/>
     </row>
     <row r="64" spans="1:9" ht="6.75" customHeight="1">
-      <c r="A64" s="66"/>
+      <c r="A64" s="68"/>
       <c r="B64" s="6" t="s">
         <v>324</v>
       </c>
@@ -15365,61 +15368,61 @@
       <c r="H64" s="49" t="s">
         <v>266</v>
       </c>
-      <c r="I64" s="65"/>
+      <c r="I64" s="85"/>
     </row>
     <row r="65" spans="1:9" ht="10.25" customHeight="1">
-      <c r="A65" s="145" t="s">
+      <c r="A65" s="148" t="s">
         <v>325</v>
       </c>
-      <c r="B65" s="145"/>
-      <c r="C65" s="145"/>
-      <c r="D65" s="145"/>
-      <c r="E65" s="145"/>
-      <c r="F65" s="145"/>
-      <c r="G65" s="145"/>
-      <c r="H65" s="145"/>
-      <c r="I65" s="145"/>
+      <c r="B65" s="148"/>
+      <c r="C65" s="148"/>
+      <c r="D65" s="148"/>
+      <c r="E65" s="148"/>
+      <c r="F65" s="148"/>
+      <c r="G65" s="148"/>
+      <c r="H65" s="148"/>
+      <c r="I65" s="148"/>
     </row>
     <row r="66" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A66" s="145" t="s">
+      <c r="A66" s="148" t="s">
         <v>326</v>
       </c>
-      <c r="B66" s="145"/>
-      <c r="C66" s="145"/>
-      <c r="D66" s="145"/>
-      <c r="E66" s="145"/>
-      <c r="F66" s="145"/>
-      <c r="G66" s="145"/>
-      <c r="H66" s="145"/>
-      <c r="I66" s="145"/>
+      <c r="B66" s="148"/>
+      <c r="C66" s="148"/>
+      <c r="D66" s="148"/>
+      <c r="E66" s="148"/>
+      <c r="F66" s="148"/>
+      <c r="G66" s="148"/>
+      <c r="H66" s="148"/>
+      <c r="I66" s="148"/>
     </row>
     <row r="67" spans="1:9" ht="6.75" customHeight="1">
       <c r="A67" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B67" s="103" t="s">
+      <c r="B67" s="117" t="s">
         <v>328</v>
       </c>
-      <c r="C67" s="104"/>
-      <c r="D67" s="104"/>
+      <c r="C67" s="118"/>
+      <c r="D67" s="118"/>
       <c r="E67" s="50"/>
-      <c r="F67" s="146"/>
-      <c r="G67" s="146"/>
-      <c r="H67" s="146"/>
-      <c r="I67" s="147"/>
+      <c r="F67" s="149"/>
+      <c r="G67" s="149"/>
+      <c r="H67" s="149"/>
+      <c r="I67" s="150"/>
     </row>
     <row r="68" spans="1:9" ht="10.25" customHeight="1">
       <c r="A68" s="38"/>
-      <c r="B68" s="140" t="s">
+      <c r="B68" s="142" t="s">
         <v>329</v>
       </c>
-      <c r="C68" s="140"/>
-      <c r="D68" s="140"/>
-      <c r="E68" s="140"/>
-      <c r="F68" s="140"/>
-      <c r="G68" s="140"/>
-      <c r="H68" s="140"/>
-      <c r="I68" s="140"/>
+      <c r="C68" s="142"/>
+      <c r="D68" s="142"/>
+      <c r="E68" s="142"/>
+      <c r="F68" s="142"/>
+      <c r="G68" s="142"/>
+      <c r="H68" s="142"/>
+      <c r="I68" s="142"/>
     </row>
     <row r="69" spans="1:9" ht="11.25" customHeight="1">
       <c r="A69" s="37"/>
@@ -15435,12 +15438,12 @@
       <c r="E69" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="F69" s="148" t="s">
+      <c r="F69" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="G69" s="149"/>
-      <c r="H69" s="149"/>
-      <c r="I69" s="149"/>
+      <c r="G69" s="147"/>
+      <c r="H69" s="147"/>
+      <c r="I69" s="147"/>
     </row>
     <row r="70" spans="1:9" ht="6.75" customHeight="1">
       <c r="A70" s="14"/>
@@ -15459,9 +15462,9 @@
       <c r="F70" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="G70" s="150"/>
-      <c r="H70" s="150"/>
-      <c r="I70" s="150"/>
+      <c r="G70" s="143"/>
+      <c r="H70" s="143"/>
+      <c r="I70" s="143"/>
     </row>
     <row r="71" spans="1:9" ht="6.75" customHeight="1">
       <c r="A71" s="14"/>
@@ -15480,9 +15483,9 @@
       <c r="F71" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="G71" s="150"/>
-      <c r="H71" s="150"/>
-      <c r="I71" s="150"/>
+      <c r="G71" s="143"/>
+      <c r="H71" s="143"/>
+      <c r="I71" s="143"/>
     </row>
     <row r="72" spans="1:9" ht="6.75" customHeight="1">
       <c r="A72" s="14"/>
@@ -15501,9 +15504,9 @@
       <c r="F72" s="75" t="s">
         <v>245</v>
       </c>
-      <c r="G72" s="150"/>
-      <c r="H72" s="150"/>
-      <c r="I72" s="150"/>
+      <c r="G72" s="143"/>
+      <c r="H72" s="143"/>
+      <c r="I72" s="143"/>
     </row>
     <row r="73" spans="1:9" ht="6.75" customHeight="1">
       <c r="A73" s="14"/>
@@ -15522,9 +15525,9 @@
       <c r="F73" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="G73" s="150"/>
-      <c r="H73" s="150"/>
-      <c r="I73" s="150"/>
+      <c r="G73" s="143"/>
+      <c r="H73" s="143"/>
+      <c r="I73" s="143"/>
     </row>
     <row r="74" spans="1:9" ht="6.75" customHeight="1">
       <c r="A74" s="14"/>
@@ -15543,9 +15546,9 @@
       <c r="F74" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="G74" s="150"/>
-      <c r="H74" s="150"/>
-      <c r="I74" s="150"/>
+      <c r="G74" s="143"/>
+      <c r="H74" s="143"/>
+      <c r="I74" s="143"/>
     </row>
     <row r="75" spans="1:9" ht="6.75" customHeight="1">
       <c r="A75" s="14"/>
@@ -15564,9 +15567,9 @@
       <c r="F75" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="G75" s="150"/>
-      <c r="H75" s="150"/>
-      <c r="I75" s="150"/>
+      <c r="G75" s="143"/>
+      <c r="H75" s="143"/>
+      <c r="I75" s="143"/>
     </row>
     <row r="76" spans="1:9" ht="6.75" customHeight="1">
       <c r="A76" s="14"/>
@@ -15585,9 +15588,9 @@
       <c r="F76" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="G76" s="150"/>
-      <c r="H76" s="150"/>
-      <c r="I76" s="150"/>
+      <c r="G76" s="143"/>
+      <c r="H76" s="143"/>
+      <c r="I76" s="143"/>
     </row>
     <row r="77" spans="1:9" ht="6.75" customHeight="1">
       <c r="A77" s="14"/>
@@ -15606,9 +15609,9 @@
       <c r="F77" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="G77" s="150"/>
-      <c r="H77" s="150"/>
-      <c r="I77" s="150"/>
+      <c r="G77" s="143"/>
+      <c r="H77" s="143"/>
+      <c r="I77" s="143"/>
     </row>
     <row r="78" spans="1:9" ht="6.75" customHeight="1">
       <c r="A78" s="14"/>
@@ -15627,9 +15630,9 @@
       <c r="F78" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="G78" s="150"/>
-      <c r="H78" s="150"/>
-      <c r="I78" s="150"/>
+      <c r="G78" s="143"/>
+      <c r="H78" s="143"/>
+      <c r="I78" s="143"/>
     </row>
     <row r="79" spans="1:9" ht="6.75" customHeight="1">
       <c r="A79" s="14"/>
@@ -15648,9 +15651,9 @@
       <c r="F79" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="G79" s="150"/>
-      <c r="H79" s="150"/>
-      <c r="I79" s="150"/>
+      <c r="G79" s="143"/>
+      <c r="H79" s="143"/>
+      <c r="I79" s="143"/>
     </row>
     <row r="80" spans="1:9" ht="20.25" customHeight="1">
       <c r="A80" s="2"/>
@@ -15666,12 +15669,12 @@
       <c r="E80" s="53">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="F80" s="151" t="s">
+      <c r="F80" s="144" t="s">
         <v>332</v>
       </c>
-      <c r="G80" s="152"/>
-      <c r="H80" s="152"/>
-      <c r="I80" s="152"/>
+      <c r="G80" s="145"/>
+      <c r="H80" s="145"/>
+      <c r="I80" s="145"/>
     </row>
     <row r="81" spans="1:9" ht="6.75" customHeight="1">
       <c r="A81" s="14"/>
@@ -15690,64 +15693,64 @@
       <c r="F81" s="75" t="s">
         <v>332</v>
       </c>
-      <c r="G81" s="150"/>
-      <c r="H81" s="150"/>
-      <c r="I81" s="150"/>
+      <c r="G81" s="143"/>
+      <c r="H81" s="143"/>
+      <c r="I81" s="143"/>
     </row>
     <row r="82" spans="1:9" ht="32.25" customHeight="1">
       <c r="A82" s="2"/>
-      <c r="B82" s="66" t="s">
+      <c r="B82" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="C82" s="66"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="68"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="68"/>
+      <c r="H82" s="68"/>
+      <c r="I82" s="68"/>
     </row>
     <row r="83" spans="1:9" ht="54" customHeight="1">
       <c r="A83" s="2"/>
-      <c r="B83" s="66" t="s">
+      <c r="B83" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
+      <c r="C83" s="68"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="68"/>
+      <c r="F83" s="68"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="68"/>
+      <c r="I83" s="68"/>
     </row>
     <row r="84" spans="1:9" ht="91" customHeight="1"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:A64"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:I64"/>
+    <mergeCell ref="A65:I65"/>
+    <mergeCell ref="A66:I66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="B68:I68"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F78:I78"/>
     <mergeCell ref="F79:I79"/>
     <mergeCell ref="F80:I80"/>
     <mergeCell ref="F81:I81"/>
     <mergeCell ref="B82:I82"/>
     <mergeCell ref="B83:I83"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="A65:I65"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="B68:I68"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:A64"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:I64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15773,424 +15776,424 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="139" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="139"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="141"/>
     </row>
     <row r="2" spans="1:6" ht="6.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="117" t="s">
         <v>345</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="105"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="119"/>
     </row>
     <row r="3" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A3" s="153" t="s">
+      <c r="A3" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="154"/>
-      <c r="C3" s="155" t="s">
+      <c r="B3" s="165"/>
+      <c r="C3" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
     </row>
     <row r="4" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A4" s="157" t="s">
+      <c r="A4" s="168" t="s">
         <v>346</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="159">
+      <c r="B4" s="169"/>
+      <c r="C4" s="162">
         <v>1</v>
       </c>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
+      <c r="D4" s="163"/>
+      <c r="E4" s="163"/>
     </row>
     <row r="5" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A5" s="126" t="s">
+      <c r="A5" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="127"/>
-      <c r="C5" s="159">
+      <c r="B5" s="116"/>
+      <c r="C5" s="162">
         <v>25</v>
       </c>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
     </row>
     <row r="6" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A6" s="126" t="s">
+      <c r="A6" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="159">
+      <c r="B6" s="116"/>
+      <c r="C6" s="162">
         <v>298</v>
       </c>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
     </row>
     <row r="7" spans="1:6" ht="6.75" customHeight="1">
       <c r="A7" s="161" t="s">
         <v>347</v>
       </c>
       <c r="B7" s="59"/>
-      <c r="C7" s="162">
+      <c r="C7" s="157">
         <v>14800</v>
       </c>
-      <c r="D7" s="163"/>
-      <c r="E7" s="163"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
     </row>
     <row r="8" spans="1:6" ht="6.75" customHeight="1">
       <c r="A8" s="161" t="s">
         <v>348</v>
       </c>
       <c r="B8" s="59"/>
-      <c r="C8" s="159">
+      <c r="C8" s="162">
         <v>675</v>
       </c>
-      <c r="D8" s="160"/>
-      <c r="E8" s="160"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
     </row>
     <row r="9" spans="1:6" ht="6.75" customHeight="1">
       <c r="A9" s="161" t="s">
         <v>349</v>
       </c>
       <c r="B9" s="59"/>
-      <c r="C9" s="159">
+      <c r="C9" s="162">
         <v>92</v>
       </c>
-      <c r="D9" s="160"/>
-      <c r="E9" s="160"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
     </row>
     <row r="10" spans="1:6" ht="6.75" customHeight="1">
       <c r="A10" s="161" t="s">
         <v>350</v>
       </c>
       <c r="B10" s="59"/>
-      <c r="C10" s="162">
+      <c r="C10" s="157">
         <v>3500</v>
       </c>
-      <c r="D10" s="163"/>
-      <c r="E10" s="163"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
     </row>
     <row r="11" spans="1:6" ht="6.75" customHeight="1">
       <c r="A11" s="161" t="s">
         <v>351</v>
       </c>
       <c r="B11" s="59"/>
-      <c r="C11" s="162">
+      <c r="C11" s="157">
         <v>1100</v>
       </c>
-      <c r="D11" s="163"/>
-      <c r="E11" s="163"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
     </row>
     <row r="12" spans="1:6" ht="6.75" customHeight="1">
       <c r="A12" s="161" t="s">
         <v>352</v>
       </c>
       <c r="B12" s="59"/>
-      <c r="C12" s="162">
+      <c r="C12" s="157">
         <v>1430</v>
       </c>
-      <c r="D12" s="163"/>
-      <c r="E12" s="163"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
     </row>
     <row r="13" spans="1:6" ht="6.75" customHeight="1">
       <c r="A13" s="161" t="s">
         <v>353</v>
       </c>
       <c r="B13" s="59"/>
-      <c r="C13" s="159">
+      <c r="C13" s="162">
         <v>353</v>
       </c>
-      <c r="D13" s="160"/>
-      <c r="E13" s="160"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
     </row>
     <row r="14" spans="1:6" ht="6.75" customHeight="1">
       <c r="A14" s="161" t="s">
         <v>354</v>
       </c>
       <c r="B14" s="59"/>
-      <c r="C14" s="162">
+      <c r="C14" s="157">
         <v>4470</v>
       </c>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
     </row>
     <row r="15" spans="1:6" ht="6.75" customHeight="1">
       <c r="A15" s="161" t="s">
         <v>355</v>
       </c>
       <c r="B15" s="59"/>
-      <c r="C15" s="159">
+      <c r="C15" s="162">
         <v>53</v>
       </c>
-      <c r="D15" s="160"/>
-      <c r="E15" s="160"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
     </row>
     <row r="16" spans="1:6" ht="6.75" customHeight="1">
       <c r="A16" s="161" t="s">
         <v>356</v>
       </c>
       <c r="B16" s="59"/>
-      <c r="C16" s="159">
+      <c r="C16" s="162">
         <v>124</v>
       </c>
-      <c r="D16" s="160"/>
-      <c r="E16" s="160"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
     </row>
     <row r="17" spans="1:5" ht="6.75" customHeight="1">
       <c r="A17" s="161" t="s">
         <v>357</v>
       </c>
       <c r="B17" s="59"/>
-      <c r="C17" s="159">
+      <c r="C17" s="162">
         <v>12</v>
       </c>
-      <c r="D17" s="160"/>
-      <c r="E17" s="160"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
     </row>
     <row r="18" spans="1:5" ht="6.75" customHeight="1">
       <c r="A18" s="161" t="s">
         <v>358</v>
       </c>
       <c r="B18" s="59"/>
-      <c r="C18" s="162">
+      <c r="C18" s="157">
         <v>3220</v>
       </c>
-      <c r="D18" s="163"/>
-      <c r="E18" s="163"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
     </row>
     <row r="19" spans="1:5" ht="6.75" customHeight="1">
       <c r="A19" s="161" t="s">
         <v>359</v>
       </c>
       <c r="B19" s="59"/>
-      <c r="C19" s="162">
+      <c r="C19" s="157">
         <v>1340</v>
       </c>
-      <c r="D19" s="163"/>
-      <c r="E19" s="163"/>
+      <c r="D19" s="158"/>
+      <c r="E19" s="158"/>
     </row>
     <row r="20" spans="1:5" ht="6.75" customHeight="1">
       <c r="A20" s="161" t="s">
         <v>360</v>
       </c>
       <c r="B20" s="59"/>
-      <c r="C20" s="162">
+      <c r="C20" s="157">
         <v>1370</v>
       </c>
-      <c r="D20" s="163"/>
-      <c r="E20" s="163"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
     </row>
     <row r="21" spans="1:5" ht="6.75" customHeight="1">
       <c r="A21" s="161" t="s">
         <v>361</v>
       </c>
       <c r="B21" s="59"/>
-      <c r="C21" s="162">
+      <c r="C21" s="157">
         <v>9810</v>
       </c>
-      <c r="D21" s="163"/>
-      <c r="E21" s="163"/>
+      <c r="D21" s="158"/>
+      <c r="E21" s="158"/>
     </row>
     <row r="22" spans="1:5" ht="6.75" customHeight="1">
       <c r="A22" s="161" t="s">
         <v>362</v>
       </c>
       <c r="B22" s="59"/>
-      <c r="C22" s="159">
+      <c r="C22" s="162">
         <v>693</v>
       </c>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
+      <c r="D22" s="163"/>
+      <c r="E22" s="163"/>
     </row>
     <row r="23" spans="1:5" ht="6.75" customHeight="1">
       <c r="A23" s="161" t="s">
         <v>363</v>
       </c>
       <c r="B23" s="59"/>
-      <c r="C23" s="162">
+      <c r="C23" s="157">
         <v>1030</v>
       </c>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
     </row>
     <row r="24" spans="1:5" ht="6.75" customHeight="1">
       <c r="A24" s="161" t="s">
         <v>364</v>
       </c>
       <c r="B24" s="59"/>
-      <c r="C24" s="159">
+      <c r="C24" s="162">
         <v>794</v>
       </c>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
+      <c r="D24" s="163"/>
+      <c r="E24" s="163"/>
     </row>
     <row r="25" spans="1:5" ht="6.75" customHeight="1">
       <c r="A25" s="161" t="s">
         <v>365</v>
       </c>
       <c r="B25" s="59"/>
-      <c r="C25" s="162">
+      <c r="C25" s="157">
         <v>1640</v>
       </c>
-      <c r="D25" s="163"/>
-      <c r="E25" s="163"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
     </row>
     <row r="26" spans="1:5" ht="6.75" customHeight="1">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="115" t="s">
         <v>366</v>
       </c>
-      <c r="B26" s="127"/>
-      <c r="C26" s="162">
+      <c r="B26" s="116"/>
+      <c r="C26" s="157">
         <v>22800</v>
       </c>
-      <c r="D26" s="163"/>
-      <c r="E26" s="163"/>
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
     </row>
     <row r="27" spans="1:5" ht="6.75" customHeight="1">
-      <c r="A27" s="126" t="s">
+      <c r="A27" s="115" t="s">
         <v>367</v>
       </c>
-      <c r="B27" s="127"/>
-      <c r="C27" s="162">
+      <c r="B27" s="116"/>
+      <c r="C27" s="157">
         <v>17200</v>
       </c>
-      <c r="D27" s="163"/>
-      <c r="E27" s="163"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="158"/>
     </row>
     <row r="28" spans="1:5" ht="6.75" customHeight="1">
-      <c r="A28" s="126" t="s">
+      <c r="A28" s="115" t="s">
         <v>368</v>
       </c>
-      <c r="B28" s="127"/>
-      <c r="C28" s="162">
+      <c r="B28" s="116"/>
+      <c r="C28" s="157">
         <v>7390</v>
       </c>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
+      <c r="D28" s="158"/>
+      <c r="E28" s="158"/>
     </row>
     <row r="29" spans="1:5" ht="6.75" customHeight="1">
-      <c r="A29" s="126" t="s">
+      <c r="A29" s="115" t="s">
         <v>369</v>
       </c>
-      <c r="B29" s="127"/>
-      <c r="C29" s="162">
+      <c r="B29" s="116"/>
+      <c r="C29" s="157">
         <v>12200</v>
       </c>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
     </row>
     <row r="30" spans="1:5" ht="6.75" customHeight="1">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="115" t="s">
         <v>370</v>
       </c>
-      <c r="B30" s="127"/>
-      <c r="C30" s="162">
+      <c r="B30" s="116"/>
+      <c r="C30" s="157">
         <v>8830</v>
       </c>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
     </row>
     <row r="31" spans="1:5" ht="6.75" customHeight="1">
-      <c r="A31" s="126" t="s">
+      <c r="A31" s="115" t="s">
         <v>371</v>
       </c>
-      <c r="B31" s="127"/>
-      <c r="C31" s="162">
+      <c r="B31" s="116"/>
+      <c r="C31" s="157">
         <v>10300</v>
       </c>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="158"/>
     </row>
     <row r="32" spans="1:5" ht="6.75" customHeight="1">
-      <c r="A32" s="126" t="s">
+      <c r="A32" s="115" t="s">
         <v>372</v>
       </c>
-      <c r="B32" s="127"/>
-      <c r="C32" s="162">
+      <c r="B32" s="116"/>
+      <c r="C32" s="157">
         <v>8860</v>
       </c>
-      <c r="D32" s="163"/>
-      <c r="E32" s="163"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="158"/>
     </row>
     <row r="33" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A33" s="126" t="s">
+      <c r="A33" s="115" t="s">
         <v>373</v>
       </c>
-      <c r="B33" s="127"/>
-      <c r="C33" s="162">
+      <c r="B33" s="116"/>
+      <c r="C33" s="157">
         <v>9160</v>
       </c>
-      <c r="D33" s="163"/>
-      <c r="E33" s="163"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="158"/>
     </row>
     <row r="34" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A34" s="126" t="s">
+      <c r="A34" s="115" t="s">
         <v>374</v>
       </c>
-      <c r="B34" s="127"/>
-      <c r="C34" s="162">
+      <c r="B34" s="116"/>
+      <c r="C34" s="157">
         <v>9300</v>
       </c>
-      <c r="D34" s="163"/>
-      <c r="E34" s="163"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
     </row>
     <row r="35" spans="1:6" ht="6.75" customHeight="1">
-      <c r="A35" s="126" t="s">
+      <c r="A35" s="115" t="s">
         <v>375</v>
       </c>
-      <c r="B35" s="127"/>
-      <c r="C35" s="164" t="s">
+      <c r="B35" s="116"/>
+      <c r="C35" s="159" t="s">
         <v>376</v>
       </c>
-      <c r="D35" s="165"/>
-      <c r="E35" s="165"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="160"/>
     </row>
     <row r="36" spans="1:6" ht="27" customHeight="1">
-      <c r="A36" s="66" t="s">
+      <c r="A36" s="68" t="s">
         <v>377</v>
       </c>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="68"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
     </row>
     <row r="37" spans="1:6" ht="6.75" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="B37" s="103" t="s">
+      <c r="B37" s="117" t="s">
         <v>379</v>
       </c>
-      <c r="C37" s="104"/>
-      <c r="D37" s="104"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="105"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="119"/>
     </row>
     <row r="38" spans="1:6" ht="206" customHeight="1"/>
     <row r="39" spans="1:6" ht="10.75" customHeight="1">
-      <c r="A39" s="166" t="s">
+      <c r="A39" s="155" t="s">
         <v>380</v>
       </c>
-      <c r="B39" s="167"/>
+      <c r="B39" s="156"/>
       <c r="C39" s="26" t="s">
         <v>381</v>
       </c>
       <c r="D39" s="54" t="s">
         <v>382</v>
       </c>
-      <c r="E39" s="65"/>
+      <c r="E39" s="85"/>
     </row>
     <row r="40" spans="1:6" ht="6.75" customHeight="1">
       <c r="A40" s="58" t="s">
@@ -16203,7 +16206,7 @@
       <c r="D40" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="E40" s="65"/>
+      <c r="E40" s="85"/>
     </row>
     <row r="41" spans="1:6" ht="6.75" customHeight="1">
       <c r="A41" s="58" t="s">
@@ -16216,7 +16219,7 @@
       <c r="D41" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="E41" s="65"/>
+      <c r="E41" s="85"/>
     </row>
     <row r="42" spans="1:6" ht="6.75" customHeight="1">
       <c r="A42" s="58" t="s">
@@ -16229,7 +16232,7 @@
       <c r="D42" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="E42" s="65"/>
+      <c r="E42" s="85"/>
     </row>
     <row r="43" spans="1:6" ht="6.75" customHeight="1">
       <c r="A43" s="58" t="s">
@@ -16242,7 +16245,7 @@
       <c r="D43" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="E43" s="65"/>
+      <c r="E43" s="85"/>
     </row>
     <row r="44" spans="1:6" ht="6.75" customHeight="1">
       <c r="A44" s="58" t="s">
@@ -16255,7 +16258,7 @@
       <c r="D44" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="E44" s="65"/>
+      <c r="E44" s="85"/>
     </row>
     <row r="45" spans="1:6" ht="6.75" customHeight="1">
       <c r="A45" s="58" t="s">
@@ -16268,7 +16271,7 @@
       <c r="D45" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="E45" s="65"/>
+      <c r="E45" s="85"/>
     </row>
     <row r="46" spans="1:6" ht="6.75" customHeight="1">
       <c r="A46" s="58" t="s">
@@ -16281,7 +16284,7 @@
       <c r="D46" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="E46" s="65"/>
+      <c r="E46" s="85"/>
     </row>
     <row r="47" spans="1:6" ht="6.75" customHeight="1">
       <c r="A47" s="58" t="s">
@@ -16294,7 +16297,7 @@
       <c r="D47" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="E47" s="65"/>
+      <c r="E47" s="85"/>
     </row>
     <row r="48" spans="1:6" ht="6.75" customHeight="1">
       <c r="A48" s="58" t="s">
@@ -16307,7 +16310,7 @@
       <c r="D48" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="E48" s="65"/>
+      <c r="E48" s="85"/>
     </row>
     <row r="49" spans="1:5" ht="6.75" customHeight="1">
       <c r="A49" s="58" t="s">
@@ -16320,7 +16323,7 @@
       <c r="D49" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="E49" s="65"/>
+      <c r="E49" s="85"/>
     </row>
     <row r="50" spans="1:5" ht="6.75" customHeight="1">
       <c r="A50" s="58" t="s">
@@ -16333,7 +16336,7 @@
       <c r="D50" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="E50" s="65"/>
+      <c r="E50" s="85"/>
     </row>
     <row r="51" spans="1:5" ht="6.75" customHeight="1">
       <c r="A51" s="58" t="s">
@@ -16346,7 +16349,7 @@
       <c r="D51" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="E51" s="65"/>
+      <c r="E51" s="85"/>
     </row>
     <row r="52" spans="1:5" ht="6.75" customHeight="1">
       <c r="A52" s="58" t="s">
@@ -16359,7 +16362,7 @@
       <c r="D52" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="E52" s="65"/>
+      <c r="E52" s="85"/>
     </row>
     <row r="53" spans="1:5" ht="6.75" customHeight="1">
       <c r="A53" s="58" t="s">
@@ -16372,7 +16375,7 @@
       <c r="D53" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="E53" s="65"/>
+      <c r="E53" s="85"/>
     </row>
     <row r="54" spans="1:5" ht="6.75" customHeight="1">
       <c r="A54" s="58" t="s">
@@ -16385,7 +16388,7 @@
       <c r="D54" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="E54" s="65"/>
+      <c r="E54" s="85"/>
     </row>
     <row r="55" spans="1:5" ht="6.75" customHeight="1">
       <c r="A55" s="58" t="s">
@@ -16398,7 +16401,7 @@
       <c r="D55" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="E55" s="65"/>
+      <c r="E55" s="85"/>
     </row>
     <row r="56" spans="1:5" ht="6.75" customHeight="1">
       <c r="A56" s="58" t="s">
@@ -16411,7 +16414,7 @@
       <c r="D56" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="E56" s="65"/>
+      <c r="E56" s="85"/>
     </row>
     <row r="57" spans="1:5" ht="6.75" customHeight="1">
       <c r="A57" s="58" t="s">
@@ -16424,7 +16427,7 @@
       <c r="D57" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="E57" s="65"/>
+      <c r="E57" s="85"/>
     </row>
     <row r="58" spans="1:5" ht="6.75" customHeight="1">
       <c r="A58" s="58" t="s">
@@ -16437,7 +16440,7 @@
       <c r="D58" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="E58" s="65"/>
+      <c r="E58" s="85"/>
     </row>
     <row r="59" spans="1:5" ht="6.75" customHeight="1">
       <c r="A59" s="58" t="s">
@@ -16450,7 +16453,7 @@
       <c r="D59" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="E59" s="65"/>
+      <c r="E59" s="85"/>
     </row>
     <row r="60" spans="1:5" ht="6.75" customHeight="1">
       <c r="A60" s="58" t="s">
@@ -16463,7 +16466,7 @@
       <c r="D60" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="E60" s="65"/>
+      <c r="E60" s="85"/>
     </row>
     <row r="61" spans="1:5" ht="6.75" customHeight="1">
       <c r="A61" s="58" t="s">
@@ -16476,7 +16479,7 @@
       <c r="D61" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="E61" s="65"/>
+      <c r="E61" s="85"/>
     </row>
     <row r="62" spans="1:5" ht="6.75" customHeight="1">
       <c r="A62" s="58" t="s">
@@ -16489,7 +16492,7 @@
       <c r="D62" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="E62" s="65"/>
+      <c r="E62" s="85"/>
     </row>
     <row r="63" spans="1:5" ht="6.75" customHeight="1">
       <c r="A63" s="58" t="s">
@@ -16502,7 +16505,7 @@
       <c r="D63" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="E63" s="65"/>
+      <c r="E63" s="85"/>
     </row>
     <row r="64" spans="1:5" ht="6.75" customHeight="1">
       <c r="A64" s="58" t="s">
@@ -16515,7 +16518,7 @@
       <c r="D64" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="E64" s="65"/>
+      <c r="E64" s="85"/>
     </row>
     <row r="65" spans="1:5" ht="6.75" customHeight="1">
       <c r="A65" s="58" t="s">
@@ -16528,7 +16531,7 @@
       <c r="D65" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="E65" s="65"/>
+      <c r="E65" s="85"/>
     </row>
     <row r="66" spans="1:5" ht="6.75" customHeight="1">
       <c r="A66" s="58" t="s">
@@ -16541,7 +16544,7 @@
       <c r="D66" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="E66" s="65"/>
+      <c r="E66" s="85"/>
     </row>
     <row r="67" spans="1:5" ht="6.75" customHeight="1">
       <c r="A67" s="58" t="s">
@@ -16554,7 +16557,7 @@
       <c r="D67" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="E67" s="65"/>
+      <c r="E67" s="85"/>
     </row>
     <row r="68" spans="1:5" ht="6.75" customHeight="1">
       <c r="A68" s="58" t="s">
@@ -16567,7 +16570,7 @@
       <c r="D68" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="E68" s="65"/>
+      <c r="E68" s="85"/>
     </row>
     <row r="69" spans="1:5" ht="6.75" customHeight="1">
       <c r="A69" s="58" t="s">
@@ -16580,7 +16583,7 @@
       <c r="D69" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="E69" s="65"/>
+      <c r="E69" s="85"/>
     </row>
     <row r="70" spans="1:5" ht="6.75" customHeight="1">
       <c r="A70" s="58" t="s">
@@ -16593,7 +16596,7 @@
       <c r="D70" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="E70" s="65"/>
+      <c r="E70" s="85"/>
     </row>
     <row r="71" spans="1:5" ht="6.75" customHeight="1">
       <c r="A71" s="58" t="s">
@@ -16606,7 +16609,7 @@
       <c r="D71" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="E71" s="65"/>
+      <c r="E71" s="85"/>
     </row>
     <row r="72" spans="1:5" ht="6.75" customHeight="1">
       <c r="A72" s="58" t="s">
@@ -16619,7 +16622,7 @@
       <c r="D72" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="E72" s="65"/>
+      <c r="E72" s="85"/>
     </row>
     <row r="73" spans="1:5" ht="6.75" customHeight="1">
       <c r="A73" s="58" t="s">
@@ -16632,7 +16635,7 @@
       <c r="D73" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="E73" s="65"/>
+      <c r="E73" s="85"/>
     </row>
     <row r="74" spans="1:5" ht="6.75" customHeight="1">
       <c r="A74" s="58" t="s">
@@ -16645,7 +16648,7 @@
       <c r="D74" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="E74" s="65"/>
+      <c r="E74" s="85"/>
     </row>
     <row r="75" spans="1:5" ht="6.75" customHeight="1">
       <c r="A75" s="58" t="s">
@@ -16658,35 +16661,88 @@
       <c r="D75" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="E75" s="65"/>
+      <c r="E75" s="85"/>
     </row>
     <row r="76" spans="1:5" ht="13.5" customHeight="1">
-      <c r="A76" s="66" t="s">
+      <c r="A76" s="68" t="s">
         <v>455</v>
       </c>
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="68"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:E76"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A36:E36"/>
     <mergeCell ref="B37:F37"/>
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="E39:E75"/>
@@ -16711,75 +16767,22 @@
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A76" r:id="rId1" display="http://www.epa.gov/ozone/snap/refrigerants/refblend.html" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
